--- a/cms/databases/CMS.xlsx
+++ b/cms/databases/CMS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="180">
   <si>
     <t>Title</t>
   </si>
@@ -546,6 +546,15 @@
   </si>
   <si>
     <t>xBTevvRk4eHt0GWdtOMma4uTPiR1HuOn</t>
+  </si>
+  <si>
+    <t>Selected Puzzlescript Games</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>2019-01-31-selected-puzzlescript-games</t>
   </si>
 </sst>
 </file>
@@ -1013,13 +1022,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF50"/>
+  <dimension ref="A1:AF52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1028,7 +1037,7 @@
     <col min="2" max="2" width="4.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.36328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.90625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.26953125" style="2" customWidth="1"/>
     <col min="6" max="6" width="6.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.26953125" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.6328125" style="7" customWidth="1"/>
@@ -1183,7 +1192,7 @@
         <v>2017-12-01</v>
       </c>
       <c r="K2" s="10" t="str">
-        <f t="shared" ref="K2:K12" ca="1" si="0">IF(TODAY()-DATEVALUE(J2)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J2)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K2:K13" ca="1" si="0">IF(TODAY()-DATEVALUE(J2)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J2)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L2" s="10">
@@ -1216,11 +1225,11 @@
         <v>41</v>
       </c>
       <c r="T2" s="7" t="str">
-        <f>$T$9</f>
+        <f>$T$10</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U2" s="7" t="str">
-        <f t="shared" ref="U2:U9" si="1">"«"&amp;A2&amp;":MarkShort»"</f>
+        <f t="shared" ref="U2:U10" si="1">"«"&amp;A2&amp;":MarkShort»"</f>
         <v>«2017-12-01-first-post:MarkShort»</v>
       </c>
       <c r="V2" s="7" t="str">
@@ -1229,7 +1238,7 @@
       </c>
       <c r="W2" s="9"/>
       <c r="X2" s="9" t="str">
-        <f t="shared" ref="X2:X18" si="2">"«SITE-HTTP»/"&amp;A2</f>
+        <f t="shared" ref="X2:X19" si="2">"«SITE-HTTP»/"&amp;A2</f>
         <v>«SITE-HTTP»/2017-12-01-first-post</v>
       </c>
     </row>
@@ -1259,7 +1268,7 @@
         <v>43139</v>
       </c>
       <c r="J3" s="10" t="str">
-        <f t="shared" ref="J3:J9" si="3">YEAR(I3)&amp;TEXT("-"&amp;MONTH(I3),"00")&amp;TEXT("-"&amp;DAY(I3),"00")</f>
+        <f t="shared" ref="J3:J10" si="3">YEAR(I3)&amp;TEXT("-"&amp;MONTH(I3),"00")&amp;TEXT("-"&amp;DAY(I3),"00")</f>
         <v>2018-02-08</v>
       </c>
       <c r="K3" s="10" t="str">
@@ -1296,7 +1305,7 @@
         <v>41</v>
       </c>
       <c r="T3" s="7" t="str">
-        <f>$T$9</f>
+        <f>$T$10</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U3" s="7" t="str">
@@ -1321,7 +1330,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f t="shared" ref="D4:D9" si="4">$D$2</f>
+        <f t="shared" ref="D4:D10" si="4">$D$2</f>
         <v>«PAGE-POST-MD»</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1339,11 +1348,11 @@
         <v>43104</v>
       </c>
       <c r="J4" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J4" si="5">YEAR(I4)&amp;TEXT("-"&amp;MONTH(I4),"00")&amp;TEXT("-"&amp;DAY(I4),"00")</f>
         <v>2018-01-04</v>
       </c>
       <c r="K4" s="10" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="K4" ca="1" si="6">IF(TODAY()-DATEVALUE(J4)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J4)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L4" s="10">
@@ -1376,11 +1385,11 @@
         <v>41</v>
       </c>
       <c r="T4" s="7" t="str">
-        <f>$T$9</f>
+        <f>$T$10</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U4" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U4" si="7">"«"&amp;A4&amp;":MarkShort»"</f>
         <v>«2018-01-04-wikipedia-donation:MarkShort»</v>
       </c>
       <c r="V4" s="7" t="str">
@@ -1389,97 +1398,93 @@
       </c>
       <c r="W4" s="9"/>
       <c r="X4" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="X4" si="8">"«SITE-HTTP»/"&amp;A4</f>
         <v>«SITE-HTTP»/2018-01-04-wikipedia-donation</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>62</v>
+      <c r="A5" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7" t="str">
         <f t="shared" si="4"/>
         <v>«PAGE-POST-MD»</v>
       </c>
-      <c r="E5" s="7" t="str">
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="7" t="str">
         <f>"«"&amp;A5&amp;"»"</f>
-        <v>«fleur-de-lis»</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="16">
-        <v>43145</v>
+        <v>«2019-01-31-selected-puzzlescript-games»</v>
+      </c>
+      <c r="I5" s="10">
+        <f>L5</f>
+        <v>43496</v>
       </c>
       <c r="J5" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>2018-02-14</v>
+        <v>2019-01-31</v>
       </c>
       <c r="K5" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>yearly</v>
-      </c>
-      <c r="L5" s="3">
-        <v>43145</v>
-      </c>
-      <c r="M5" s="13">
-        <f t="shared" ref="M5:M10" si="5">DAY(L5)</f>
-        <v>14</v>
-      </c>
-      <c r="N5" s="6">
-        <f t="shared" ref="N5:N10" si="6">MONTH(L5)</f>
-        <v>2</v>
-      </c>
-      <c r="O5" s="6">
-        <f t="shared" ref="O5:O10" si="7">YEAR(L5)</f>
-        <v>2018</v>
+        <v>weekly</v>
+      </c>
+      <c r="L5" s="10">
+        <f>DATE(O5,N5,M5)</f>
+        <v>43496</v>
+      </c>
+      <c r="M5" s="17">
+        <f>_xlfn.NUMBERVALUE(RIGHT(LEFT(A5,10),2))</f>
+        <v>31</v>
+      </c>
+      <c r="N5" s="17">
+        <f>_xlfn.NUMBERVALUE(RIGHT(LEFT(A5,7),2))</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="17">
+        <f>_xlfn.NUMBERVALUE(LEFT(A5,4))</f>
+        <v>2019</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="2" t="str">
-        <f>Tags!$A$16&amp;", "&amp;Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
-        <v>Art, Mosaic, Travel, Wallpaper</v>
+        <f>Tags!$A$18&amp;", "&amp;Tags!$A$4</f>
+        <v>List, Post</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="7" t="str">
-        <f>LOWER(P5)&amp;"/"&amp;A5&amp;".png"</f>
-        <v>mosaic/fleur-de-lis.png</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>65</v>
+      <c r="S5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="7" t="str">
+        <f>$T$10</f>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U5" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>«fleur-de-lis:MarkShort»</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16" t="str">
+        <v>«2019-01-31-selected-puzzlescript-games:MarkShort»</v>
+      </c>
+      <c r="V5" s="7" t="str">
+        <f>IF(P5="Post","article","site")</f>
+        <v>article</v>
+      </c>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/fleur-de-lis</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>42980</v>
-      </c>
-      <c r="Z5" s="3"/>
+        <v>«SITE-HTTP»/2019-01-31-selected-puzzlescript-games</v>
+      </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -1490,17 +1495,16 @@
       </c>
       <c r="E6" s="7" t="str">
         <f>"«"&amp;A6&amp;"»"</f>
-        <v>«scales»</v>
+        <v>«fleur-de-lis»</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="7" t="str">
-        <f>$H$5</f>
-        <v>«FIGURE-MOSAIC»</v>
+        <v>59</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="I6" s="16">
         <v>43145</v>
@@ -1514,41 +1518,40 @@
         <v>yearly</v>
       </c>
       <c r="L6" s="3">
-        <v>43063</v>
+        <v>43145</v>
       </c>
       <c r="M6" s="13">
-        <f t="shared" si="5"/>
-        <v>24</v>
+        <f t="shared" ref="M6:M11" si="9">DAY(L6)</f>
+        <v>14</v>
       </c>
       <c r="N6" s="6">
-        <f t="shared" si="6"/>
-        <v>11</v>
+        <f t="shared" ref="N6:N11" si="10">MONTH(L6)</f>
+        <v>2</v>
       </c>
       <c r="O6" s="6">
-        <f t="shared" si="7"/>
-        <v>2017</v>
-      </c>
-      <c r="P6" s="2" t="str">
-        <f>P5</f>
-        <v>Mosaic</v>
+        <f t="shared" ref="O6:O11" si="11">YEAR(L6)</f>
+        <v>2018</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="Q6" s="2" t="str">
-        <f>Tags!$A$16&amp;", "&amp;Tags!$A$7&amp;", "&amp;Tags!$A$9</f>
-        <v>Art, Mosaic, Wallpaper</v>
+        <f>Tags!$A$16&amp;", "&amp;Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
+        <v>Art, Mosaic, Travel, Wallpaper</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="S6" s="7" t="str">
         <f>LOWER(P6)&amp;"/"&amp;A6&amp;".png"</f>
-        <v>mosaic/scales.png</v>
+        <v>mosaic/fleur-de-lis.png</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="U6" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>«scales:MarkShort»</v>
+        <v>«fleur-de-lis:MarkShort»</v>
       </c>
       <c r="V6" s="9" t="s">
         <v>64</v>
@@ -1556,14 +1559,16 @@
       <c r="W6" s="16"/>
       <c r="X6" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/scales</v>
-      </c>
-      <c r="Y6" s="3"/>
+        <v>«SITE-HTTP»/fleur-de-lis</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>42980</v>
+      </c>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -1574,16 +1579,16 @@
       </c>
       <c r="E7" s="7" t="str">
         <f>"«"&amp;A7&amp;"»"</f>
-        <v>«veronese»</v>
+        <v>«scales»</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H7" s="7" t="str">
-        <f>$H$5</f>
+        <f>$H$6</f>
         <v>«FIGURE-MOSAIC»</v>
       </c>
       <c r="I7" s="16">
@@ -1598,40 +1603,41 @@
         <v>yearly</v>
       </c>
       <c r="L7" s="3">
-        <v>43137</v>
+        <v>43063</v>
       </c>
       <c r="M7" s="13">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>24</v>
       </c>
       <c r="N7" s="6">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="O7" s="6">
-        <f t="shared" si="7"/>
-        <v>2018</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>61</v>
+        <f t="shared" si="11"/>
+        <v>2017</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f>P6</f>
+        <v>Mosaic</v>
       </c>
       <c r="Q7" s="2" t="str">
-        <f>Tags!$A$16&amp;", "&amp;Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
-        <v>Art, Mosaic, Travel, Wallpaper</v>
+        <f>Tags!$A$16&amp;", "&amp;Tags!$A$7&amp;", "&amp;Tags!$A$9</f>
+        <v>Art, Mosaic, Wallpaper</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="S7" s="7" t="str">
         <f>LOWER(P7)&amp;"/"&amp;A7&amp;".png"</f>
-        <v>mosaic/veronese.png</v>
+        <v>mosaic/scales.png</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U7" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>«veronese:MarkShort»</v>
+        <v>«scales:MarkShort»</v>
       </c>
       <c r="V7" s="9" t="s">
         <v>64</v>
@@ -1639,16 +1645,14 @@
       <c r="W7" s="16"/>
       <c r="X7" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/veronese</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>42982</v>
-      </c>
+        <v>«SITE-HTTP»/scales</v>
+      </c>
+      <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -1659,43 +1663,43 @@
       </c>
       <c r="E8" s="7" t="str">
         <f>"«"&amp;A8&amp;"»"</f>
-        <v>«viking-carpet»</v>
+        <v>«veronese»</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H8" s="7" t="str">
-        <f>$H$5</f>
+        <f>$H$6</f>
         <v>«FIGURE-MOSAIC»</v>
       </c>
       <c r="I8" s="16">
-        <v>43154</v>
+        <v>43145</v>
       </c>
       <c r="J8" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>2018-02-23</v>
+        <v>2018-02-14</v>
       </c>
       <c r="K8" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>yearly</v>
       </c>
       <c r="L8" s="3">
-        <v>43018</v>
+        <v>43137</v>
       </c>
       <c r="M8" s="13">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" si="7"/>
-        <v>2017</v>
+        <f t="shared" si="11"/>
+        <v>2018</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>61</v>
@@ -1709,14 +1713,14 @@
       </c>
       <c r="S8" s="7" t="str">
         <f>LOWER(P8)&amp;"/"&amp;A8&amp;".png"</f>
-        <v>mosaic/viking-carpet.png</v>
+        <v>mosaic/veronese.png</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="U8" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>«viking-carpet:MarkShort»</v>
+        <v>«veronese:MarkShort»</v>
       </c>
       <c r="V8" s="9" t="s">
         <v>64</v>
@@ -1724,21 +1728,19 @@
       <c r="W8" s="16"/>
       <c r="X8" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/viking-carpet</v>
-      </c>
-      <c r="Y8" s="3"/>
+        <v>«SITE-HTTP»/veronese</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>42982</v>
+      </c>
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="str">
-        <f>SUBSTITUTE(LOWER(G9)," ","-")</f>
-        <v>about</v>
+      <c r="A9" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
       </c>
       <c r="D9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -1746,350 +1748,358 @@
       </c>
       <c r="E9" s="7" t="str">
         <f>"«"&amp;A9&amp;"»"</f>
-        <v>«about»</v>
+        <v>«viking-carpet»</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="H9" s="7" t="str">
-        <f>"«"&amp;A9&amp;"»"</f>
-        <v>«about»</v>
-      </c>
-      <c r="I9" s="10">
-        <f>L9</f>
-        <v>43133</v>
+        <f>$H$6</f>
+        <v>«FIGURE-MOSAIC»</v>
+      </c>
+      <c r="I9" s="16">
+        <v>43154</v>
       </c>
       <c r="J9" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>2018-02-02</v>
+        <v>2018-02-23</v>
       </c>
       <c r="K9" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>yearly</v>
       </c>
       <c r="L9" s="3">
-        <v>43133</v>
+        <v>43018</v>
       </c>
       <c r="M9" s="13">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="N9" s="6">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
       <c r="O9" s="6">
-        <f t="shared" si="7"/>
-        <v>2018</v>
+        <f t="shared" si="11"/>
+        <v>2017</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="2" t="str">
-        <f>Tags!$A$6&amp;", "&amp;Tags!$A$4</f>
-        <v>Creative-Archive, Post</v>
+        <f>Tags!$A$16&amp;", "&amp;Tags!$A$7&amp;", "&amp;Tags!$A$8&amp;", "&amp;Tags!$A$9</f>
+        <v>Art, Mosaic, Travel, Wallpaper</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="9" t="s">
-        <v>53</v>
+      <c r="S9" s="7" t="str">
+        <f>LOWER(P9)&amp;"/"&amp;A9&amp;".png"</f>
+        <v>mosaic/viking-carpet.png</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="U9" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>«about:MarkShort»</v>
+        <v>«viking-carpet:MarkShort»</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="X9" s="7" t="str">
+        <v>64</v>
+      </c>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/about</v>
-      </c>
+        <v>«SITE-HTTP»/viking-carpet</v>
+      </c>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>42</v>
+      <c r="A10" s="7" t="str">
+        <f>SUBSTITUTE(LOWER(G10)," ","-")</f>
+        <v>about</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>122</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>«PAGE-POST-MD»</v>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f>"«"&amp;A10&amp;"»"</f>
+        <v>«about»</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="23" t="s">
-        <v>94</v>
+        <v>143</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f>"«"&amp;A10&amp;"»"</f>
+        <v>«about»</v>
+      </c>
+      <c r="I10" s="10">
+        <f>L10</f>
+        <v>43133</v>
+      </c>
+      <c r="J10" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>2018-02-02</v>
       </c>
       <c r="K10" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>yearly</v>
       </c>
-      <c r="L10" s="16">
-        <v>43070</v>
+      <c r="L10" s="3">
+        <v>43133</v>
       </c>
       <c r="M10" s="13">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="7"/>
-        <v>2017</v>
+        <f t="shared" si="11"/>
+        <v>2018</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="2" t="str">
-        <f>Tags!$A$11</f>
-        <v>Sitemap</v>
-      </c>
-      <c r="S10" s="7" t="str">
-        <f>$S$9</f>
-        <v>logo.png</v>
-      </c>
-      <c r="T10" s="7" t="str">
-        <f>$T$9</f>
-        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
-      </c>
-      <c r="U10" s="9" t="str">
-        <f>U9</f>
+        <f>Tags!$A$6&amp;", "&amp;Tags!$A$4</f>
+        <v>Creative-Archive, Post</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U10" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>«about:MarkShort»</v>
       </c>
-      <c r="V10" s="7" t="str">
-        <f>IF(P10="Post","article","website")</f>
-        <v>website</v>
+      <c r="V10" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="X10" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/index</v>
+        <v>«SITE-HTTP»/about</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="str">
-        <f>SUBSTITUTE(LOWER(G11)," ","-")</f>
-        <v>guestbook</v>
+      <c r="A11" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2">
-        <v>6</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>34</v>
+        <v>83</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="7" t="str">
-        <f t="shared" ref="H11:H18" si="8">"«"&amp;A11&amp;"»"</f>
-        <v>«guestbook»</v>
-      </c>
-      <c r="I11" s="3">
-        <v>43303</v>
-      </c>
-      <c r="J11" s="10" t="str">
-        <f t="shared" ref="J11" si="9">YEAR(I11)&amp;TEXT("-"&amp;MONTH(I11),"00")&amp;TEXT("-"&amp;DAY(I11),"00")</f>
-        <v>2018-07-22</v>
+        <v>142</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="K11" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>yearly</v>
       </c>
-      <c r="L11" s="3">
-        <v>43303</v>
+      <c r="L11" s="16">
+        <v>43070</v>
       </c>
       <c r="M11" s="13">
-        <f t="shared" ref="M11" si="10">DAY(L11)</f>
-        <v>22</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" ref="N11" si="11">MONTH(L11)</f>
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" ref="O11" si="12">YEAR(L11)</f>
-        <v>2018</v>
+        <f t="shared" si="11"/>
+        <v>2017</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="2" t="str">
-        <f>Tags!$A$6</f>
-        <v>Creative-Archive</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>41</v>
+        <f>Tags!$A$11</f>
+        <v>Sitemap</v>
+      </c>
+      <c r="S11" s="7" t="str">
+        <f>$S$10</f>
+        <v>logo.png</v>
       </c>
       <c r="T11" s="7" t="str">
-        <f>$T$9</f>
+        <f>$T$10</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
-      <c r="U11" s="9" t="s">
-        <v>147</v>
+      <c r="U11" s="9" t="str">
+        <f>U10</f>
+        <v>«about:MarkShort»</v>
       </c>
       <c r="V11" s="7" t="str">
         <f>IF(P11="Post","article","website")</f>
         <v>website</v>
       </c>
       <c r="X11" s="7" t="str">
-        <f t="shared" ref="X11" si="13">"«SITE-HTTP»/"&amp;A11</f>
-        <v>«SITE-HTTP»/guestbook</v>
+        <f t="shared" si="2"/>
+        <v>«SITE-HTTP»/index</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G12)," ","-")</f>
-        <v>contact</v>
+        <v>guestbook</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="24" t="str">
-        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
+        <v>146</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f t="shared" ref="H12:H19" si="12">"«"&amp;A12&amp;"»"</f>
+        <v>«guestbook»</v>
+      </c>
+      <c r="I12" s="3">
+        <v>43303</v>
+      </c>
+      <c r="J12" s="10" t="str">
+        <f t="shared" ref="J12" si="13">YEAR(I12)&amp;TEXT("-"&amp;MONTH(I12),"00")&amp;TEXT("-"&amp;DAY(I12),"00")</f>
+        <v>2018-07-22</v>
       </c>
       <c r="K12" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>yearly</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="13"/>
+      <c r="L12" s="3">
+        <v>43303</v>
+      </c>
+      <c r="M12" s="13">
+        <f t="shared" ref="M12" si="14">DAY(L12)</f>
+        <v>22</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" ref="N12" si="15">MONTH(L12)</f>
+        <v>7</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" ref="O12" si="16">YEAR(L12)</f>
+        <v>2018</v>
+      </c>
       <c r="P12" s="2" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="Q12" s="2" t="str">
         <f>Tags!$A$6</f>
         <v>Creative-Archive</v>
       </c>
+      <c r="R12" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="S12" s="7" t="s">
         <v>41</v>
       </c>
       <c r="T12" s="7" t="str">
-        <f>$T$9</f>
+        <f>$T$10</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="V12" s="7" t="str">
         <f>IF(P12="Post","article","website")</f>
         <v>website</v>
       </c>
       <c r="X12" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/contact</v>
+        <f t="shared" ref="X12" si="17">"«SITE-HTTP»/"&amp;A12</f>
+        <v>«SITE-HTTP»/guestbook</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G13)," ","-")</f>
-        <v>hall-of-fame</v>
+        <v>contact</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C13" s="2">
+        <v>7</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>«hall-of-fame»</v>
-      </c>
-      <c r="I13" s="3">
-        <v>43265</v>
-      </c>
-      <c r="J13" s="10" t="str">
-        <f t="shared" ref="J13:J28" si="14">YEAR(I13)&amp;TEXT("-"&amp;MONTH(I13),"00")&amp;TEXT("-"&amp;DAY(I13),"00")</f>
-        <v>2018-06-14</v>
+        <v>13</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="24" t="str">
+        <f>YEAR($J$11)&amp;TEXT("-"&amp;MONTH($J$11),"00")&amp;TEXT("-"&amp;DAY($J$11),"00")</f>
+        <v>2018-03-02</v>
       </c>
       <c r="K13" s="10" t="str">
-        <f t="shared" ref="K13" ca="1" si="15">IF(TODAY()-DATEVALUE(J13)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J13)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>yearly</v>
       </c>
-      <c r="L13" s="3">
-        <v>43185</v>
-      </c>
-      <c r="M13" s="13">
-        <f>DAY(L13)</f>
-        <v>26</v>
-      </c>
-      <c r="N13" s="6">
-        <f>MONTH(L13)</f>
-        <v>3</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" ref="O13" si="16">YEAR(L13)</f>
-        <v>2018</v>
-      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="13"/>
       <c r="P13" s="2" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="2" t="str">
         <f>Tags!$A$6</f>
         <v>Creative-Archive</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="S13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="T13" s="7" t="str">
-        <f>$T$9</f>
+        <f>$T$10</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V13" s="7" t="str">
         <f>IF(P13="Post","article","website")</f>
@@ -2097,159 +2107,137 @@
       </c>
       <c r="X13" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/hall-of-fame</v>
+        <v>«SITE-HTTP»/contact</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="str">
-        <f t="shared" ref="A14:A17" si="17">SUBSTITUTE(LOWER(G14)," ","-")</f>
-        <v>tetrastrophe</v>
+        <f>SUBSTITUTE(LOWER(G14)," ","-")</f>
+        <v>hall-of-fame</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="H14" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>«tetrastrophe»</v>
+        <f t="shared" si="12"/>
+        <v>«hall-of-fame»</v>
       </c>
       <c r="I14" s="3">
-        <v>43132</v>
+        <v>43265</v>
       </c>
       <c r="J14" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2018-02-01</v>
+        <f t="shared" ref="J14:J29" si="18">YEAR(I14)&amp;TEXT("-"&amp;MONTH(I14),"00")&amp;TEXT("-"&amp;DAY(I14),"00")</f>
+        <v>2018-06-14</v>
       </c>
       <c r="K14" s="10" t="str">
-        <f t="shared" ref="K14:K20" ca="1" si="18">IF(TODAY()-DATEVALUE(J14)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J14)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K14" ca="1" si="19">IF(TODAY()-DATEVALUE(J14)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J14)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L14" s="3">
-        <v>41773</v>
+        <v>43185</v>
       </c>
       <c r="M14" s="13">
         <f>DAY(L14)</f>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N14" s="6">
         <f>MONTH(L14)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" ref="O14:O28" si="19">YEAR(L14)</f>
-        <v>2014</v>
+        <f t="shared" ref="O14" si="20">YEAR(L14)</f>
+        <v>2018</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="2" t="str">
-        <f>Tags!$A$10&amp;", "&amp;Tags!$A$2&amp;", "&amp;Tags!$A$3</f>
-        <v>Game, Platformer, Puzzle</v>
+        <f>Tags!$A$6</f>
+        <v>Creative-Archive</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="7" t="str">
-        <f>A14&amp;".png"</f>
-        <v>tetrastrophe.png</v>
+      <c r="S14" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="T14" s="7" t="str">
-        <f>G14</f>
-        <v>Tetrastrophe</v>
-      </c>
-      <c r="U14" s="7" t="str">
-        <f>"«"&amp;A14&amp;":MarkShort»"</f>
-        <v>«tetrastrophe:MarkShort»</v>
+        <f>$T$10</f>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="V14" s="7" t="str">
-        <f t="shared" ref="V14:V20" si="20">IF(P14="Post","article",IF(P14="Game","game","website"))</f>
-        <v>game</v>
+        <f>IF(P14="Post","article","website")</f>
+        <v>website</v>
       </c>
       <c r="X14" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/tetrastrophe</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>134</v>
+        <v>«SITE-HTTP»/hall-of-fame</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v>blockworks</v>
+        <f t="shared" ref="A15:A18" si="21">SUBSTITUTE(LOWER(G15)," ","-")</f>
+        <v>tetrastrophe</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="28" t="str">
-        <f>$D$14</f>
-        <v>«PAGE-GAME-FULLSCREEN»</v>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15" s="28" t="str">
-        <f>$F$14</f>
-        <v>prose</v>
+        <v>170</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>«blockworks»</v>
+        <f t="shared" si="12"/>
+        <v>«tetrastrophe»</v>
       </c>
       <c r="I15" s="3">
-        <v>43150</v>
+        <v>43132</v>
       </c>
       <c r="J15" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2018-02-19</v>
+        <f t="shared" si="18"/>
+        <v>2018-02-01</v>
       </c>
       <c r="K15" s="10" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ref="K15:K21" ca="1" si="22">IF(TODAY()-DATEVALUE(J15)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J15)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L15" s="3">
-        <v>43135</v>
+        <v>41773</v>
       </c>
       <c r="M15" s="13">
-        <f t="shared" ref="M15" si="21">DAY(L15)</f>
-        <v>4</v>
+        <f>DAY(L15)</f>
+        <v>14</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" ref="N15" si="22">MONTH(L15)</f>
-        <v>2</v>
+        <f>MONTH(L15)</f>
+        <v>5</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="19"/>
-        <v>2018</v>
+        <f t="shared" ref="O15:O29" si="23">YEAR(L15)</f>
+        <v>2014</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>25</v>
@@ -2263,197 +2251,196 @@
       </c>
       <c r="S15" s="7" t="str">
         <f>A15&amp;".png"</f>
-        <v>blockworks.png</v>
+        <v>tetrastrophe.png</v>
       </c>
       <c r="T15" s="7" t="str">
-        <f t="shared" ref="T15:T25" si="23">G15</f>
-        <v>Blockworks</v>
+        <f>G15</f>
+        <v>Tetrastrophe</v>
       </c>
       <c r="U15" s="7" t="str">
         <f>"«"&amp;A15&amp;":MarkShort»"</f>
-        <v>«blockworks:MarkShort»</v>
+        <v>«tetrastrophe:MarkShort»</v>
       </c>
       <c r="V15" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="V15:V21" si="24">IF(P15="Post","article",IF(P15="Game","game","website"))</f>
         <v>game</v>
       </c>
       <c r="X15" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/blockworks</v>
+        <v>«SITE-HTTP»/tetrastrophe</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA15"/>
+        <v>38</v>
+      </c>
       <c r="AB15" s="2" t="s">
         <v>166</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="str">
-        <f t="shared" ref="A16" si="24">SUBSTITUTE(LOWER(G16)," ","-")</f>
-        <v>whirlpuzzle</v>
+        <f t="shared" si="21"/>
+        <v>blockworks</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="28" t="str">
-        <f t="shared" ref="D16:D23" si="25">$D$14</f>
+        <f>$D$15</f>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F16" s="28" t="str">
-        <f t="shared" ref="F16:F24" si="26">$F$14</f>
+        <f>$F$15</f>
         <v>prose</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H16" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>«whirlpuzzle»</v>
+        <f t="shared" si="12"/>
+        <v>«blockworks»</v>
       </c>
       <c r="I16" s="3">
-        <v>43160</v>
+        <v>43150</v>
       </c>
       <c r="J16" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2018-03-01</v>
+        <f t="shared" si="18"/>
+        <v>2018-02-19</v>
       </c>
       <c r="K16" s="10" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="22"/>
         <v>yearly</v>
       </c>
       <c r="L16" s="3">
-        <v>43160</v>
+        <v>43135</v>
       </c>
       <c r="M16" s="13">
-        <f t="shared" ref="M16" si="27">DAY(L16)</f>
-        <v>1</v>
+        <f t="shared" ref="M16" si="25">DAY(L16)</f>
+        <v>4</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" ref="N16" si="28">MONTH(L16)</f>
-        <v>3</v>
+        <f t="shared" ref="N16" si="26">MONTH(L16)</f>
+        <v>2</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2018</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Q16" s="2" t="str">
-        <f>Tags!$A$10&amp;", "&amp;Tags!$A$3</f>
-        <v>Game, Puzzle</v>
+        <f>Tags!$A$10&amp;", "&amp;Tags!$A$2&amp;", "&amp;Tags!$A$3</f>
+        <v>Game, Platformer, Puzzle</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="S16" s="7" t="str">
         <f>A16&amp;".png"</f>
-        <v>whirlpuzzle.png</v>
+        <v>blockworks.png</v>
       </c>
       <c r="T16" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v>Whirlpuzzle</v>
+        <f t="shared" ref="T16:T26" si="27">G16</f>
+        <v>Blockworks</v>
       </c>
       <c r="U16" s="7" t="str">
         <f>"«"&amp;A16&amp;":MarkShort»"</f>
-        <v>«whirlpuzzle:MarkShort»</v>
+        <v>«blockworks:MarkShort»</v>
       </c>
       <c r="V16" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>game</v>
       </c>
       <c r="X16" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/whirlpuzzle</v>
+        <v>«SITE-HTTP»/blockworks</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA16" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA16"/>
       <c r="AB16" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AC16" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="AD16" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v>unlucky-unlock</v>
+        <f t="shared" ref="A17" si="28">SUBSTITUTE(LOWER(G17)," ","-")</f>
+        <v>whirlpuzzle</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="28" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="D17:D24" si="29">$D$15</f>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F17" s="28" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="F17:F25" si="30">$F$15</f>
         <v>prose</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>«unlucky-unlock»</v>
+        <f t="shared" si="12"/>
+        <v>«whirlpuzzle»</v>
       </c>
       <c r="I17" s="3">
-        <v>43133</v>
+        <v>43160</v>
       </c>
       <c r="J17" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2018-02-02</v>
+        <f t="shared" si="18"/>
+        <v>2018-03-01</v>
       </c>
       <c r="K17" s="10" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="22"/>
         <v>yearly</v>
       </c>
       <c r="L17" s="3">
-        <v>41838</v>
+        <v>43160</v>
       </c>
       <c r="M17" s="13">
-        <f t="shared" ref="M17" si="29">DAY(L17)</f>
-        <v>18</v>
+        <f t="shared" ref="M17" si="31">DAY(L17)</f>
+        <v>1</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" ref="N17" si="30">MONTH(L17)</f>
-        <v>7</v>
+        <f t="shared" ref="N17" si="32">MONTH(L17)</f>
+        <v>3</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="19"/>
-        <v>2014</v>
+        <f t="shared" si="23"/>
+        <v>2018</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>25</v>
@@ -2463,31 +2450,32 @@
         <v>Game, Puzzle</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S17" s="7" t="str">
         <f>A17&amp;".png"</f>
-        <v>unlucky-unlock.png</v>
+        <v>whirlpuzzle.png</v>
       </c>
       <c r="T17" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v>Unlucky Unlock</v>
+        <f t="shared" si="27"/>
+        <v>Whirlpuzzle</v>
       </c>
       <c r="U17" s="7" t="str">
         <f>"«"&amp;A17&amp;":MarkShort»"</f>
-        <v>«unlucky-unlock:MarkShort»</v>
+        <v>«whirlpuzzle:MarkShort»</v>
       </c>
       <c r="V17" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>game</v>
       </c>
       <c r="X17" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>«SITE-HTTP»/unlucky-unlock</v>
+        <v>«SITE-HTTP»/whirlpuzzle</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AA17" s="18"/>
       <c r="AB17" s="2" t="s">
         <v>166</v>
       </c>
@@ -2495,833 +2483,855 @@
         <v>85</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>97</v>
+      <c r="A18" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>unlucky-unlock</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="28" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="F18" s="28" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>prose</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>«pmgrp»</v>
+        <f t="shared" si="12"/>
+        <v>«unlucky-unlock»</v>
       </c>
       <c r="I18" s="3">
-        <v>43179</v>
+        <v>43133</v>
       </c>
       <c r="J18" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2018-03-20</v>
+        <f t="shared" si="18"/>
+        <v>2018-02-02</v>
       </c>
       <c r="K18" s="10" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="22"/>
         <v>yearly</v>
       </c>
       <c r="L18" s="3">
-        <v>43179</v>
+        <v>41838</v>
       </c>
       <c r="M18" s="13">
-        <f t="shared" ref="M18" si="31">DAY(L18)</f>
-        <v>20</v>
+        <f t="shared" ref="M18" si="33">DAY(L18)</f>
+        <v>18</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" ref="N18" si="32">MONTH(L18)</f>
-        <v>3</v>
+        <f t="shared" ref="N18" si="34">MONTH(L18)</f>
+        <v>7</v>
       </c>
       <c r="O18" s="6">
-        <f t="shared" si="19"/>
-        <v>2018</v>
+        <f t="shared" si="23"/>
+        <v>2014</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Q18" s="2" t="str">
+        <f>Tags!$A$10&amp;", "&amp;Tags!$A$3</f>
+        <v>Game, Puzzle</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18" s="7" t="str">
+        <f>A18&amp;".png"</f>
+        <v>unlucky-unlock.png</v>
+      </c>
+      <c r="T18" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>Unlucky Unlock</v>
+      </c>
+      <c r="U18" s="7" t="str">
+        <f>"«"&amp;A18&amp;":MarkShort»"</f>
+        <v>«unlucky-unlock:MarkShort»</v>
+      </c>
+      <c r="V18" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v>game</v>
+      </c>
+      <c r="X18" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>«SITE-HTTP»/unlucky-unlock</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="28" t="str">
+        <f t="shared" si="29"/>
+        <v>«PAGE-GAME-FULLSCREEN»</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="28" t="str">
+        <f t="shared" si="30"/>
+        <v>prose</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>«pmgrp»</v>
+      </c>
+      <c r="I19" s="3">
+        <v>43179</v>
+      </c>
+      <c r="J19" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>2018-03-20</v>
+      </c>
+      <c r="K19" s="10" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>yearly</v>
+      </c>
+      <c r="L19" s="3">
+        <v>43179</v>
+      </c>
+      <c r="M19" s="13">
+        <f t="shared" ref="M19" si="35">DAY(L19)</f>
+        <v>20</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" ref="N19" si="36">MONTH(L19)</f>
+        <v>3</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="23"/>
+        <v>2018</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="2" t="str">
         <f>Tags!$A$10&amp;", "&amp;Tags!$A$2&amp;", "&amp;Tags!$A$3</f>
         <v>Game, Platformer, Puzzle</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S18" s="7" t="str">
-        <f>A18&amp;".png"</f>
+      <c r="S19" s="7" t="str">
+        <f>A19&amp;".png"</f>
         <v>pmgrp.png</v>
       </c>
-      <c r="T18" s="7" t="str">
-        <f t="shared" si="23"/>
+      <c r="T19" s="7" t="str">
+        <f t="shared" si="27"/>
         <v>Play Mini Gemini Replay (PMGRP)</v>
       </c>
-      <c r="U18" s="7" t="str">
-        <f>"«"&amp;A18&amp;":MarkShort»"</f>
+      <c r="U19" s="7" t="str">
+        <f>"«"&amp;A19&amp;":MarkShort»"</f>
         <v>«pmgrp:MarkShort»</v>
       </c>
-      <c r="V18" s="7" t="str">
-        <f t="shared" si="20"/>
+      <c r="V19" s="7" t="str">
+        <f t="shared" si="24"/>
         <v>game</v>
       </c>
-      <c r="X18" s="7" t="str">
+      <c r="X19" s="7" t="str">
         <f t="shared" si="2"/>
         <v>«SITE-HTTP»/pmgrp</v>
       </c>
-      <c r="AB18" s="2" t="s">
+      <c r="AB19" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AC18" s="2" t="s">
+      <c r="AC19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AD18" s="2" t="s">
+      <c r="AD19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AE18" s="2" t="s">
+      <c r="AE19" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AF18" s="4" t="s">
+      <c r="AF19" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A19" s="31" t="s">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F20" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="9" t="str">
+      <c r="H20" s="9" t="str">
         <f>"«combinatura»"</f>
         <v>«combinatura»</v>
       </c>
-      <c r="I19" s="10">
-        <f t="shared" ref="I19:I28" si="33">L19</f>
+      <c r="I20" s="10">
+        <f t="shared" ref="I20:I29" si="37">L20</f>
         <v>43287</v>
       </c>
-      <c r="J19" s="10" t="str">
-        <f t="shared" si="14"/>
+      <c r="J20" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>2018-07-06</v>
       </c>
-      <c r="K19" s="10" t="str">
-        <f t="shared" ca="1" si="18"/>
+      <c r="K20" s="10" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v>yearly</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L20" s="3">
         <v>43287</v>
       </c>
-      <c r="M19" s="13">
-        <f t="shared" ref="M19:M21" si="34">DAY(L19)</f>
+      <c r="M20" s="13">
+        <f t="shared" ref="M20:M22" si="38">DAY(L20)</f>
         <v>6</v>
       </c>
-      <c r="N19" s="6">
-        <f t="shared" ref="N19:N21" si="35">MONTH(L19)</f>
+      <c r="N20" s="6">
+        <f t="shared" ref="N20:N22" si="39">MONTH(L20)</f>
         <v>7</v>
       </c>
-      <c r="O19" s="6">
-        <f t="shared" ref="O19:O21" si="36">YEAR(L19)</f>
+      <c r="O20" s="6">
+        <f t="shared" ref="O20:O22" si="40">YEAR(L20)</f>
         <v>2018</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="2" t="str">
+      <c r="Q20" s="2" t="str">
         <f>Tags!$A$10&amp;", "&amp;Tags!$A$13&amp;", "&amp;Tags!$A$8</f>
         <v>Game, Nature, Travel</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S19" s="7" t="str">
-        <f>Y19&amp;".png"</f>
+      <c r="S20" s="7" t="str">
+        <f>Y20&amp;".png"</f>
         <v>combinatura.png</v>
       </c>
-      <c r="T19" s="7" t="str">
-        <f t="shared" si="23"/>
+      <c r="T20" s="7" t="str">
+        <f t="shared" si="27"/>
         <v>Combinatura</v>
       </c>
-      <c r="U19" s="9" t="s">
+      <c r="U20" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="V19" s="7" t="str">
-        <f t="shared" si="20"/>
+      <c r="V20" s="7" t="str">
+        <f t="shared" si="24"/>
         <v>game</v>
       </c>
-      <c r="X19" s="31" t="s">
+      <c r="X20" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="Y19" s="2" t="s">
+      <c r="Y20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AB19" s="2" t="s">
+      <c r="AB20" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="str">
-        <f t="shared" ref="A20:A23" si="37">SUBSTITUTE(LOWER(G20)," ","-")</f>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="str">
+        <f t="shared" ref="A21:A24" si="41">SUBSTITUTE(LOWER(G21)," ","-")</f>
         <v>hastefulll</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="28" t="str">
-        <f t="shared" si="25"/>
+      <c r="D21" s="28" t="str">
+        <f t="shared" si="29"/>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="28" t="str">
-        <f t="shared" si="26"/>
+      <c r="F21" s="28" t="str">
+        <f t="shared" si="30"/>
         <v>prose</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H20" s="7" t="str">
-        <f t="shared" ref="H20:H28" si="38">"«"&amp;A20&amp;"»"</f>
+      <c r="H21" s="7" t="str">
+        <f t="shared" ref="H21:H29" si="42">"«"&amp;A21&amp;"»"</f>
         <v>«hastefulll»</v>
       </c>
-      <c r="I20" s="10">
-        <f t="shared" si="33"/>
+      <c r="I21" s="10">
+        <f t="shared" si="37"/>
         <v>43293</v>
       </c>
-      <c r="J20" s="10" t="str">
-        <f t="shared" si="14"/>
+      <c r="J21" s="10" t="str">
+        <f t="shared" si="18"/>
         <v>2018-07-12</v>
       </c>
-      <c r="K20" s="10" t="str">
-        <f t="shared" ca="1" si="18"/>
+      <c r="K21" s="10" t="str">
+        <f t="shared" ca="1" si="22"/>
         <v>yearly</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L21" s="3">
         <v>43293</v>
       </c>
-      <c r="M20" s="13">
-        <f t="shared" ref="M20" si="39">DAY(L20)</f>
+      <c r="M21" s="13">
+        <f t="shared" ref="M21" si="43">DAY(L21)</f>
         <v>12</v>
       </c>
-      <c r="N20" s="6">
-        <f t="shared" ref="N20" si="40">MONTH(L20)</f>
+      <c r="N21" s="6">
+        <f t="shared" ref="N21" si="44">MONTH(L21)</f>
         <v>7</v>
       </c>
-      <c r="O20" s="6">
-        <f t="shared" ref="O20" si="41">YEAR(L20)</f>
+      <c r="O21" s="6">
+        <f t="shared" ref="O21" si="45">YEAR(L21)</f>
         <v>2018</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="2" t="str">
+      <c r="Q21" s="2" t="str">
         <f>Tags!$A$10&amp;", "&amp;Tags!$A$2&amp;", "&amp;Tags!$A$3</f>
         <v>Game, Platformer, Puzzle</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S20" s="7" t="str">
-        <f t="shared" ref="S20:S25" si="42">A20&amp;".png"</f>
+      <c r="S21" s="7" t="str">
+        <f t="shared" ref="S21:S26" si="46">A21&amp;".png"</f>
         <v>hastefulll.png</v>
       </c>
-      <c r="T20" s="7" t="str">
-        <f t="shared" si="23"/>
+      <c r="T21" s="7" t="str">
+        <f t="shared" si="27"/>
         <v>Hastefulll</v>
       </c>
-      <c r="U20" s="7" t="str">
-        <f>"«"&amp;A20&amp;":MarkShort»"</f>
+      <c r="U21" s="7" t="str">
+        <f>"«"&amp;A21&amp;":MarkShort»"</f>
         <v>«hastefulll:MarkShort»</v>
       </c>
-      <c r="V20" s="7" t="str">
-        <f t="shared" si="20"/>
+      <c r="V21" s="7" t="str">
+        <f t="shared" si="24"/>
         <v>game</v>
       </c>
-      <c r="X20" s="7" t="str">
-        <f t="shared" ref="X20" si="43">"«SITE-HTTP»/"&amp;A20</f>
+      <c r="X21" s="7" t="str">
+        <f t="shared" ref="X21" si="47">"«SITE-HTTP»/"&amp;A21</f>
         <v>«SITE-HTTP»/hastefulll</v>
       </c>
-      <c r="AB20" s="2" t="s">
+      <c r="AB21" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AC20" s="2" t="s">
+      <c r="AC21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AD20" s="2" t="s">
+      <c r="AD21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AE20" s="2" t="s">
+      <c r="AE21" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AF20" s="4" t="s">
+      <c r="AF21" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="str">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="str">
+        <f t="shared" si="41"/>
+        <v>tiaradventur</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="28" t="str">
+        <f t="shared" si="29"/>
+        <v>«PAGE-GAME-FULLSCREEN»</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="28" t="str">
+        <f t="shared" si="30"/>
+        <v>prose</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f t="shared" si="42"/>
+        <v>«tiaradventur»</v>
+      </c>
+      <c r="I22" s="10">
         <f t="shared" si="37"/>
-        <v>tiaradventur</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="28" t="str">
-        <f t="shared" si="25"/>
-        <v>«PAGE-GAME-FULLSCREEN»</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" s="28" t="str">
-        <f t="shared" si="26"/>
-        <v>prose</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" s="7" t="str">
+        <v>43340</v>
+      </c>
+      <c r="J22" s="10" t="str">
+        <f t="shared" ref="J22" si="48">YEAR(I22)&amp;TEXT("-"&amp;MONTH(I22),"00")&amp;TEXT("-"&amp;DAY(I22),"00")</f>
+        <v>2018-08-28</v>
+      </c>
+      <c r="K22" s="10" t="str">
+        <f t="shared" ref="K22" ca="1" si="49">IF(TODAY()-DATEVALUE(J22)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J22)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L22" s="3">
+        <v>43340</v>
+      </c>
+      <c r="M22" s="13">
         <f t="shared" si="38"/>
-        <v>«tiaradventur»</v>
-      </c>
-      <c r="I21" s="10">
-        <f t="shared" si="33"/>
-        <v>43340</v>
-      </c>
-      <c r="J21" s="10" t="str">
-        <f t="shared" ref="J21" si="44">YEAR(I21)&amp;TEXT("-"&amp;MONTH(I21),"00")&amp;TEXT("-"&amp;DAY(I21),"00")</f>
-        <v>2018-08-28</v>
-      </c>
-      <c r="K21" s="10" t="str">
-        <f t="shared" ref="K21" ca="1" si="45">IF(TODAY()-DATEVALUE(J21)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J21)&lt;60,"monthly","yearly"))</f>
-        <v>yearly</v>
-      </c>
-      <c r="L21" s="3">
-        <v>43340</v>
-      </c>
-      <c r="M21" s="13">
-        <f t="shared" si="34"/>
         <v>28</v>
       </c>
-      <c r="N21" s="6">
-        <f t="shared" si="35"/>
+      <c r="N22" s="6">
+        <f t="shared" si="39"/>
         <v>8</v>
       </c>
-      <c r="O21" s="6">
-        <f t="shared" si="36"/>
+      <c r="O22" s="6">
+        <f t="shared" si="40"/>
         <v>2018</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q21" s="2" t="str">
+      <c r="Q22" s="2" t="str">
         <f>Tags!$A$10&amp;",  "&amp;Tags!$A$3&amp;", "&amp;Tags!$A$14</f>
         <v>Game,  Puzzle, Role-playing</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S21" s="7" t="str">
-        <f t="shared" si="42"/>
+      <c r="S22" s="7" t="str">
+        <f t="shared" si="46"/>
         <v>tiaradventur.png</v>
       </c>
-      <c r="T21" s="7" t="str">
-        <f t="shared" si="23"/>
+      <c r="T22" s="7" t="str">
+        <f t="shared" si="27"/>
         <v>Tiaradventur</v>
       </c>
-      <c r="U21" s="7" t="str">
-        <f>"«"&amp;A21&amp;":MarkShort»"</f>
+      <c r="U22" s="7" t="str">
+        <f>"«"&amp;A22&amp;":MarkShort»"</f>
         <v>«tiaradventur:MarkShort»</v>
       </c>
-      <c r="V21" s="7" t="str">
-        <f t="shared" ref="V21" si="46">IF(P21="Post","article",IF(P21="Game","game","website"))</f>
+      <c r="V22" s="7" t="str">
+        <f t="shared" ref="V22" si="50">IF(P22="Post","article",IF(P22="Game","game","website"))</f>
         <v>game</v>
       </c>
-      <c r="X21" s="7" t="str">
-        <f t="shared" ref="X21:X23" si="47">"«SITE-HTTP»/"&amp;A21</f>
+      <c r="X22" s="7" t="str">
+        <f t="shared" ref="X22:X24" si="51">"«SITE-HTTP»/"&amp;A22</f>
         <v>«SITE-HTTP»/tiaradventur</v>
       </c>
-      <c r="AA21" s="28" t="str">
+      <c r="AA22" s="28" t="str">
         <f>"«HONOURS-HOF»"</f>
         <v>«HONOURS-HOF»</v>
       </c>
-      <c r="AB21" s="2" t="s">
+      <c r="AB22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AC21" s="2" t="s">
+      <c r="AC22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AD21" s="2" t="s">
+      <c r="AD22" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AE22" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AF21" s="4" t="s">
+      <c r="AF22" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="str">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="str">
+        <f t="shared" si="41"/>
+        <v>nomadpage</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f t="shared" si="42"/>
+        <v>«nomadpage»</v>
+      </c>
+      <c r="I23" s="10">
         <f t="shared" si="37"/>
-        <v>nomadpage</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H22" s="7" t="str">
-        <f t="shared" si="38"/>
-        <v>«nomadpage»</v>
-      </c>
-      <c r="I22" s="10">
-        <f t="shared" si="33"/>
         <v>43349</v>
       </c>
-      <c r="J22" s="10" t="str">
-        <f t="shared" ref="J22:J24" si="48">YEAR(I22)&amp;TEXT("-"&amp;MONTH(I22),"00")&amp;TEXT("-"&amp;DAY(I22),"00")</f>
+      <c r="J23" s="10" t="str">
+        <f t="shared" ref="J23:J25" si="52">YEAR(I23)&amp;TEXT("-"&amp;MONTH(I23),"00")&amp;TEXT("-"&amp;DAY(I23),"00")</f>
         <v>2018-09-06</v>
       </c>
-      <c r="K22" s="10" t="str">
-        <f t="shared" ref="K22:K24" ca="1" si="49">IF(TODAY()-DATEVALUE(J22)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J22)&lt;60,"monthly","yearly"))</f>
+      <c r="K23" s="10" t="str">
+        <f t="shared" ref="K23:K25" ca="1" si="53">IF(TODAY()-DATEVALUE(J23)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J23)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L23" s="3">
         <v>43349</v>
       </c>
-      <c r="M22" s="13">
-        <f t="shared" ref="M22:M24" si="50">DAY(L22)</f>
+      <c r="M23" s="13">
+        <f t="shared" ref="M23:M25" si="54">DAY(L23)</f>
         <v>6</v>
       </c>
-      <c r="N22" s="6">
-        <f t="shared" ref="N22:N24" si="51">MONTH(L22)</f>
+      <c r="N23" s="6">
+        <f t="shared" ref="N23:N25" si="55">MONTH(L23)</f>
         <v>9</v>
       </c>
-      <c r="O22" s="6">
-        <f t="shared" ref="O22:O24" si="52">YEAR(L22)</f>
+      <c r="O23" s="6">
+        <f t="shared" ref="O23:O25" si="56">YEAR(L23)</f>
         <v>2018</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="2" t="str">
+      <c r="Q23" s="2" t="str">
         <f>Tags!$A$15</f>
         <v>Add-on</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S22" s="7" t="str">
-        <f t="shared" si="42"/>
+      <c r="S23" s="7" t="str">
+        <f t="shared" si="46"/>
         <v>nomadpage.png</v>
       </c>
-      <c r="T22" s="7" t="str">
-        <f t="shared" si="23"/>
+      <c r="T23" s="7" t="str">
+        <f t="shared" si="27"/>
         <v>NomadPage</v>
       </c>
-      <c r="U22" s="7" t="str">
-        <f t="shared" ref="U22" si="53">"«"&amp;A22&amp;":MarkShort»"</f>
+      <c r="U23" s="7" t="str">
+        <f t="shared" ref="U23" si="57">"«"&amp;A23&amp;":MarkShort»"</f>
         <v>«nomadpage:MarkShort»</v>
       </c>
-      <c r="V22" s="7" t="str">
-        <f>IF(P22="Post","article","site")</f>
+      <c r="V23" s="7" t="str">
+        <f>IF(P23="Post","article","site")</f>
         <v>article</v>
       </c>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9" t="str">
-        <f t="shared" si="47"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9" t="str">
+        <f t="shared" si="51"/>
         <v>«SITE-HTTP»/nomadpage</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="str">
-        <f t="shared" si="37"/>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="str">
+        <f t="shared" si="41"/>
         <v>abxtract-tractx</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="28" t="str">
-        <f t="shared" si="25"/>
+      <c r="D24" s="28" t="str">
+        <f t="shared" si="29"/>
         <v>«PAGE-GAME-FULLSCREEN»</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F23" s="28" t="str">
-        <f t="shared" si="26"/>
+      <c r="F24" s="28" t="str">
+        <f t="shared" si="30"/>
         <v>prose</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H23" s="7" t="str">
-        <f t="shared" ref="H23" si="54">"«"&amp;A23&amp;"»"</f>
+      <c r="H24" s="7" t="str">
+        <f t="shared" ref="H24" si="58">"«"&amp;A24&amp;"»"</f>
         <v>«abxtract-tractx»</v>
       </c>
-      <c r="I23" s="10">
-        <f t="shared" ref="I23" si="55">L23</f>
+      <c r="I24" s="10">
+        <f t="shared" ref="I24" si="59">L24</f>
         <v>43377</v>
       </c>
-      <c r="J23" s="10" t="str">
-        <f t="shared" ref="J23" si="56">YEAR(I23)&amp;TEXT("-"&amp;MONTH(I23),"00")&amp;TEXT("-"&amp;DAY(I23),"00")</f>
+      <c r="J24" s="10" t="str">
+        <f t="shared" ref="J24" si="60">YEAR(I24)&amp;TEXT("-"&amp;MONTH(I24),"00")&amp;TEXT("-"&amp;DAY(I24),"00")</f>
         <v>2018-10-04</v>
       </c>
-      <c r="K23" s="10" t="str">
-        <f t="shared" ref="K23" ca="1" si="57">IF(TODAY()-DATEVALUE(J23)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J23)&lt;60,"monthly","yearly"))</f>
+      <c r="K24" s="10" t="str">
+        <f t="shared" ref="K24" ca="1" si="61">IF(TODAY()-DATEVALUE(J24)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J24)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L24" s="3">
         <v>43377</v>
       </c>
-      <c r="M23" s="13">
-        <f t="shared" ref="M23" si="58">DAY(L23)</f>
+      <c r="M24" s="13">
+        <f t="shared" ref="M24" si="62">DAY(L24)</f>
         <v>4</v>
       </c>
-      <c r="N23" s="6">
-        <f t="shared" ref="N23" si="59">MONTH(L23)</f>
+      <c r="N24" s="6">
+        <f t="shared" ref="N24" si="63">MONTH(L24)</f>
         <v>10</v>
       </c>
-      <c r="O23" s="6">
-        <f t="shared" ref="O23" si="60">YEAR(L23)</f>
+      <c r="O24" s="6">
+        <f t="shared" ref="O24" si="64">YEAR(L24)</f>
         <v>2018</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q23" s="2" t="str">
+      <c r="Q24" s="2" t="str">
         <f>Tags!$A$16&amp;", "&amp;Tags!$A$10&amp;", "&amp;Tags!$A$3</f>
         <v>Art, Game, Puzzle</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S23" s="7" t="str">
+      <c r="S24" s="7" t="str">
+        <f t="shared" si="46"/>
+        <v>abxtract-tractx.png</v>
+      </c>
+      <c r="T24" s="7" t="str">
+        <f t="shared" ref="T24" si="65">G24</f>
+        <v>Abxtract Tractx</v>
+      </c>
+      <c r="U24" s="7" t="str">
+        <f>"«"&amp;A24&amp;":MarkShort»"</f>
+        <v>«abxtract-tractx:MarkShort»</v>
+      </c>
+      <c r="V24" s="7" t="str">
+        <f t="shared" ref="V24" si="66">IF(P24="Post","article",IF(P24="Game","game","website"))</f>
+        <v>game</v>
+      </c>
+      <c r="X24" s="7" t="str">
+        <f t="shared" si="51"/>
+        <v>«SITE-HTTP»/abxtract-tractx</v>
+      </c>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF24" s="4"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="str">
+        <f t="shared" ref="A25" si="67">SUBSTITUTE(LOWER(G25)," ","-")</f>
+        <v>gravirinth</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="28" t="str">
+        <f t="shared" si="30"/>
+        <v>prose</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="7" t="str">
         <f t="shared" si="42"/>
-        <v>abxtract-tractx.png</v>
-      </c>
-      <c r="T23" s="7" t="str">
-        <f t="shared" ref="T23" si="61">G23</f>
-        <v>Abxtract Tractx</v>
-      </c>
-      <c r="U23" s="7" t="str">
-        <f>"«"&amp;A23&amp;":MarkShort»"</f>
-        <v>«abxtract-tractx:MarkShort»</v>
-      </c>
-      <c r="V23" s="7" t="str">
-        <f t="shared" ref="V23" si="62">IF(P23="Post","article",IF(P23="Game","game","website"))</f>
-        <v>game</v>
-      </c>
-      <c r="X23" s="7" t="str">
-        <f t="shared" si="47"/>
-        <v>«SITE-HTTP»/abxtract-tractx</v>
-      </c>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF23" s="4"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="str">
-        <f t="shared" ref="A24" si="63">SUBSTITUTE(LOWER(G24)," ","-")</f>
-        <v>gravirinth</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>176</v>
-      </c>
-      <c r="F24" s="28" t="str">
-        <f t="shared" si="26"/>
-        <v>prose</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H24" s="7" t="str">
-        <f t="shared" si="38"/>
         <v>«gravirinth»</v>
       </c>
-      <c r="I24" s="10">
-        <f t="shared" si="33"/>
+      <c r="I25" s="10">
+        <f t="shared" si="37"/>
         <v>43472</v>
       </c>
-      <c r="J24" s="10" t="str">
-        <f t="shared" si="48"/>
+      <c r="J25" s="10" t="str">
+        <f t="shared" si="52"/>
         <v>2019-01-07</v>
       </c>
-      <c r="K24" s="10" t="str">
-        <f t="shared" ca="1" si="49"/>
+      <c r="K25" s="10" t="str">
+        <f t="shared" ca="1" si="53"/>
         <v>monthly</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L25" s="3">
         <v>43472</v>
       </c>
-      <c r="M24" s="13">
-        <f t="shared" si="50"/>
+      <c r="M25" s="13">
+        <f t="shared" si="54"/>
         <v>7</v>
       </c>
-      <c r="N24" s="6">
-        <f t="shared" si="51"/>
+      <c r="N25" s="6">
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
-      <c r="O24" s="6">
-        <f t="shared" si="52"/>
+      <c r="O25" s="6">
+        <f t="shared" si="56"/>
         <v>2019</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q24" s="2" t="str">
+      <c r="Q25" s="2" t="str">
         <f>Tags!$A$10&amp;", "&amp;Tags!$A$2&amp;", "&amp;Tags!$A$3</f>
         <v>Game, Platformer, Puzzle</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S24" s="7" t="str">
-        <f t="shared" si="42"/>
+      <c r="S25" s="7" t="str">
+        <f t="shared" si="46"/>
         <v>gravirinth.png</v>
       </c>
-      <c r="T24" s="7" t="str">
-        <f t="shared" si="23"/>
+      <c r="T25" s="7" t="str">
+        <f t="shared" si="27"/>
         <v>Gravirinth</v>
       </c>
-      <c r="U24" s="7" t="str">
-        <f>"«"&amp;A24&amp;":MarkShort»"</f>
+      <c r="U25" s="7" t="str">
+        <f>"«"&amp;A25&amp;":MarkShort»"</f>
         <v>«gravirinth:MarkShort»</v>
       </c>
-      <c r="V24" s="7" t="str">
-        <f t="shared" ref="V24" si="64">IF(P24="Post","article",IF(P24="Game","game","website"))</f>
+      <c r="V25" s="7" t="str">
+        <f t="shared" ref="V25" si="68">IF(P25="Post","article",IF(P25="Game","game","website"))</f>
         <v>game</v>
       </c>
-      <c r="X24" s="7" t="str">
-        <f t="shared" ref="X24:X25" si="65">"«SITE-HTTP»/"&amp;A24</f>
+      <c r="X25" s="7" t="str">
+        <f t="shared" ref="X25:X26" si="69">"«SITE-HTTP»/"&amp;A25</f>
         <v>«SITE-HTTP»/gravirinth</v>
       </c>
-      <c r="AA24" s="28" t="str">
-        <f>$AA$21</f>
+      <c r="AA25" s="28" t="str">
+        <f>$AA$22</f>
         <v>«HONOURS-HOF»</v>
       </c>
-      <c r="AB24" s="2" t="s">
+      <c r="AB25" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AC24" s="2" t="s">
+      <c r="AC25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AF24" s="4"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="str">
-        <f>A24&amp;"-log"</f>
+      <c r="AF25" s="4"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="str">
+        <f>A25&amp;"-log"</f>
         <v>gravirinth-log</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="7" t="str">
-        <f t="shared" ref="D25" si="66">$D$2</f>
+      <c r="D26" s="7" t="str">
+        <f t="shared" ref="D26" si="70">$D$2</f>
         <v>«PAGE-POST-MD»</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="2" t="str">
-        <f>G24&amp;" changelog"</f>
+      <c r="G26" s="2" t="str">
+        <f>G25&amp;" changelog"</f>
         <v>Gravirinth changelog</v>
       </c>
-      <c r="H25" s="7" t="str">
-        <f>"«"&amp;A25&amp;"»"</f>
+      <c r="H26" s="7" t="str">
+        <f>"«"&amp;A26&amp;"»"</f>
         <v>«gravirinth-log»</v>
       </c>
-      <c r="I25" s="10">
-        <f t="shared" ref="I25" si="67">L25</f>
+      <c r="I26" s="10">
+        <f t="shared" ref="I26" si="71">L26</f>
         <v>43426</v>
       </c>
-      <c r="J25" s="10" t="str">
-        <f t="shared" ref="J25" si="68">YEAR(I25)&amp;TEXT("-"&amp;MONTH(I25),"00")&amp;TEXT("-"&amp;DAY(I25),"00")</f>
+      <c r="J26" s="10" t="str">
+        <f t="shared" ref="J26" si="72">YEAR(I26)&amp;TEXT("-"&amp;MONTH(I26),"00")&amp;TEXT("-"&amp;DAY(I26),"00")</f>
         <v>2018-11-22</v>
       </c>
-      <c r="K25" s="10" t="str">
-        <f t="shared" ref="K25" ca="1" si="69">IF(TODAY()-DATEVALUE(J25)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J25)&lt;60,"monthly","yearly"))</f>
+      <c r="K26" s="10" t="str">
+        <f t="shared" ref="K26" ca="1" si="73">IF(TODAY()-DATEVALUE(J26)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J26)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L26" s="3">
         <v>43426</v>
       </c>
-      <c r="M25" s="13">
-        <f t="shared" ref="M25" si="70">DAY(L25)</f>
+      <c r="M26" s="13">
+        <f t="shared" ref="M26" si="74">DAY(L26)</f>
         <v>22</v>
       </c>
-      <c r="N25" s="6">
-        <f t="shared" ref="N25" si="71">MONTH(L25)</f>
+      <c r="N26" s="6">
+        <f t="shared" ref="N26" si="75">MONTH(L26)</f>
         <v>11</v>
       </c>
-      <c r="O25" s="6">
-        <f t="shared" ref="O25" si="72">YEAR(L25)</f>
+      <c r="O26" s="6">
+        <f t="shared" ref="O26" si="76">YEAR(L26)</f>
         <v>2018</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q25" s="2" t="str">
+      <c r="Q26" s="2" t="str">
         <f>Tags!$A$6&amp;", "&amp;Tags!$A$17&amp;", "&amp;Tags!$A$4</f>
         <v>Creative-Archive, Log, Post</v>
       </c>
-      <c r="R25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S25" s="7" t="str">
-        <f t="shared" si="42"/>
-        <v>gravirinth-log.png</v>
-      </c>
-      <c r="T25" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v>Gravirinth changelog</v>
-      </c>
-      <c r="U25" s="7" t="str">
-        <f t="shared" ref="U25" si="73">"«"&amp;A25&amp;":MarkShort»"</f>
-        <v>«gravirinth-log:MarkShort»</v>
-      </c>
-      <c r="V25" s="7" t="str">
-        <f>IF(P25="Post","article","site")</f>
-        <v>article</v>
-      </c>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9" t="str">
-        <f t="shared" si="65"/>
-        <v>«SITE-HTTP»/gravirinth-log</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="str">
-        <f>SUBSTITUTE(LOWER(G26)," ","-")</f>
-        <v>terms-of-use</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="7" t="str">
-        <f>$D$2</f>
-        <v>«PAGE-POST-MD»</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="7" t="str">
-        <f t="shared" si="38"/>
-        <v>«terms-of-use»</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="33"/>
-        <v>43069</v>
-      </c>
-      <c r="J26" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2017-11-30</v>
-      </c>
-      <c r="K26" s="10" t="str">
-        <f ca="1">IF(TODAY()-DATEVALUE(J26)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J26)&lt;60,"monthly","yearly"))</f>
-        <v>yearly</v>
-      </c>
-      <c r="L26" s="3">
-        <v>43069</v>
-      </c>
-      <c r="M26" s="13">
-        <f t="shared" ref="M26:M27" si="74">DAY(L26)</f>
-        <v>30</v>
-      </c>
-      <c r="N26" s="6">
-        <f t="shared" ref="N26:N27" si="75">MONTH(L26)</f>
-        <v>11</v>
-      </c>
-      <c r="O26" s="6">
-        <f t="shared" si="19"/>
-        <v>2017</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="2" t="str">
-        <f>Tags!$A$6&amp;", "&amp;Tags!$A$4</f>
-        <v>Creative-Archive, Post</v>
-      </c>
       <c r="R26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S26" s="7" t="s">
-        <v>41</v>
+      <c r="S26" s="7" t="str">
+        <f t="shared" si="46"/>
+        <v>gravirinth-log.png</v>
       </c>
       <c r="T26" s="7" t="str">
-        <f>$T$9</f>
-        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+        <f t="shared" si="27"/>
+        <v>Gravirinth changelog</v>
       </c>
       <c r="U26" s="7" t="str">
-        <f>"«"&amp;A26&amp;":MarkShort»"</f>
-        <v>«terms-of-use:MarkShort»</v>
+        <f t="shared" ref="U26" si="77">"«"&amp;A26&amp;":MarkShort»"</f>
+        <v>«gravirinth-log:MarkShort»</v>
       </c>
       <c r="V26" s="7" t="str">
-        <f t="shared" ref="V26:V31" si="76">IF(P26="Post","article",IF(P26="Game","game","website"))</f>
+        <f>IF(P26="Post","article","site")</f>
         <v>article</v>
       </c>
-      <c r="X26" s="7" t="str">
-        <f t="shared" ref="X26:X34" si="77">"«SITE-HTTP»/"&amp;A26</f>
-        <v>«SITE-HTTP»/terms-of-use</v>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9" t="str">
+        <f t="shared" si="69"/>
+        <v>«SITE-HTTP»/gravirinth-log</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G27)," ","-")</f>
-        <v>privacy-policy</v>
+        <v>terms-of-use</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="7" t="str">
         <f>$D$2</f>
@@ -3331,37 +3341,38 @@
         <v>34</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H27" s="7" t="str">
-        <f t="shared" ref="H27" si="78">"«"&amp;A27&amp;"»"</f>
-        <v>«privacy-policy»</v>
-      </c>
-      <c r="I27" s="16">
-        <v>43169</v>
+        <f t="shared" si="42"/>
+        <v>«terms-of-use»</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="37"/>
+        <v>43069</v>
       </c>
       <c r="J27" s="10" t="str">
-        <f t="shared" ref="J27" si="79">YEAR(I27)&amp;TEXT("-"&amp;MONTH(I27),"00")&amp;TEXT("-"&amp;DAY(I27),"00")</f>
-        <v>2018-03-10</v>
+        <f t="shared" si="18"/>
+        <v>2017-11-30</v>
       </c>
       <c r="K27" s="10" t="str">
-        <f t="shared" ref="K27" ca="1" si="80">IF(TODAY()-DATEVALUE(J27)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J27)&lt;60,"monthly","yearly"))</f>
+        <f ca="1">IF(TODAY()-DATEVALUE(J27)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J27)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L27" s="3">
-        <v>43141</v>
+        <v>43069</v>
       </c>
       <c r="M27" s="13">
-        <f t="shared" si="74"/>
-        <v>10</v>
+        <f t="shared" ref="M27:M28" si="78">DAY(L27)</f>
+        <v>30</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="75"/>
-        <v>2</v>
+        <f t="shared" ref="N27:N28" si="79">MONTH(L27)</f>
+        <v>11</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" ref="O27" si="81">YEAR(L27)</f>
-        <v>2018</v>
+        <f t="shared" si="23"/>
+        <v>2017</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>3</v>
@@ -3377,32 +3388,29 @@
         <v>41</v>
       </c>
       <c r="T27" s="7" t="str">
-        <f>$T$9</f>
+        <f>$T$10</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U27" s="7" t="str">
         <f>"«"&amp;A27&amp;":MarkShort»"</f>
-        <v>«privacy-policy:MarkShort»</v>
+        <v>«terms-of-use:MarkShort»</v>
       </c>
       <c r="V27" s="7" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="V27:V32" si="80">IF(P27="Post","article",IF(P27="Game","game","website"))</f>
         <v>article</v>
       </c>
       <c r="X27" s="7" t="str">
-        <f t="shared" ref="X27" si="82">"«SITE-HTTP»/"&amp;A27</f>
-        <v>«SITE-HTTP»/privacy-policy</v>
+        <f t="shared" ref="X27:X35" si="81">"«SITE-HTTP»/"&amp;A27</f>
+        <v>«SITE-HTTP»/terms-of-use</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G28)," ","-")</f>
-        <v>subscribe</v>
+        <v>privacy-policy</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D28" s="7" t="str">
         <f>$D$2</f>
@@ -3412,37 +3420,36 @@
         <v>34</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="H28" s="7" t="str">
-        <f t="shared" si="38"/>
-        <v>«subscribe»</v>
-      </c>
-      <c r="I28" s="10">
-        <f t="shared" si="33"/>
-        <v>43440</v>
+        <f t="shared" ref="H28" si="82">"«"&amp;A28&amp;"»"</f>
+        <v>«privacy-policy»</v>
+      </c>
+      <c r="I28" s="16">
+        <v>43169</v>
       </c>
       <c r="J28" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>2018-12-06</v>
+        <f t="shared" ref="J28" si="83">YEAR(I28)&amp;TEXT("-"&amp;MONTH(I28),"00")&amp;TEXT("-"&amp;DAY(I28),"00")</f>
+        <v>2018-03-10</v>
       </c>
       <c r="K28" s="10" t="str">
-        <f t="shared" ref="K28:K42" ca="1" si="83">IF(TODAY()-DATEVALUE(J28)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J28)&lt;60,"monthly","yearly"))</f>
-        <v>monthly</v>
+        <f t="shared" ref="K28" ca="1" si="84">IF(TODAY()-DATEVALUE(J28)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J28)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
       </c>
       <c r="L28" s="3">
-        <v>43440</v>
+        <v>43141</v>
       </c>
       <c r="M28" s="13">
-        <f t="shared" ref="M28" si="84">DAY(L28)</f>
-        <v>6</v>
+        <f t="shared" si="78"/>
+        <v>10</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" ref="N28" si="85">MONTH(L28)</f>
-        <v>12</v>
+        <f t="shared" si="79"/>
+        <v>2</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="O28" si="85">YEAR(L28)</f>
         <v>2018</v>
       </c>
       <c r="P28" s="2" t="s">
@@ -3455,126 +3462,140 @@
       <c r="R28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S28" s="7" t="str">
-        <f>$S$25</f>
-        <v>gravirinth-log.png</v>
-      </c>
-      <c r="T28" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>172</v>
+      <c r="S28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" s="7" t="str">
+        <f>$T$10</f>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U28" s="7" t="str">
+        <f>"«"&amp;A28&amp;":MarkShort»"</f>
+        <v>«privacy-policy:MarkShort»</v>
       </c>
       <c r="V28" s="7" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>article</v>
       </c>
       <c r="X28" s="7" t="str">
-        <f t="shared" si="77"/>
-        <v>«SITE-HTTP»/subscribe</v>
+        <f t="shared" ref="X28" si="86">"«SITE-HTTP»/"&amp;A28</f>
+        <v>«SITE-HTTP»/privacy-policy</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G29)," ","-")</f>
-        <v>posts-by-date</v>
+        <v>subscribe</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7" t="str">
+        <f>$D$2</f>
+        <v>«PAGE-POST-MD»</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="7" t="str">
+        <f t="shared" si="42"/>
+        <v>«subscribe»</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="37"/>
+        <v>43440</v>
+      </c>
+      <c r="J29" s="10" t="str">
+        <f t="shared" si="18"/>
+        <v>2018-12-06</v>
+      </c>
+      <c r="K29" s="10" t="str">
+        <f t="shared" ref="K29:K43" ca="1" si="87">IF(TODAY()-DATEVALUE(J29)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J29)&lt;60,"monthly","yearly"))</f>
+        <v>monthly</v>
+      </c>
+      <c r="L29" s="3">
+        <v>43440</v>
+      </c>
+      <c r="M29" s="13">
+        <f t="shared" ref="M29" si="88">DAY(L29)</f>
+        <v>6</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" ref="N29" si="89">MONTH(L29)</f>
+        <v>12</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="23"/>
+        <v>2018</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="2" t="str">
+        <f>Tags!$A$6&amp;", "&amp;Tags!$A$4</f>
+        <v>Creative-Archive, Post</v>
+      </c>
+      <c r="R29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="24" t="str">
-        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
-      </c>
-      <c r="K29" s="10" t="str">
-        <f ca="1">IF(TODAY()-DATEVALUE(J29)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J29)&lt;60,"monthly","yearly"))</f>
-        <v>yearly</v>
-      </c>
-      <c r="L29" s="20">
-        <f>L$10</f>
-        <v>43070</v>
-      </c>
-      <c r="M29" s="13"/>
-      <c r="P29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q29" s="2" t="str">
-        <f>Tags!$A$11</f>
-        <v>Sitemap</v>
-      </c>
       <c r="S29" s="7" t="str">
-        <f>$S$9</f>
-        <v>logo.png</v>
-      </c>
-      <c r="T29" s="7" t="str">
-        <f>$T$9</f>
-        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
-      </c>
-      <c r="U29" s="7" t="str">
-        <f>"Archive of "&amp;G29</f>
-        <v>Archive of Posts by date</v>
+        <f>$S$26</f>
+        <v>gravirinth-log.png</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="V29" s="7" t="str">
-        <f t="shared" si="76"/>
-        <v>website</v>
+        <f t="shared" si="80"/>
+        <v>article</v>
       </c>
       <c r="X29" s="7" t="str">
-        <f t="shared" si="77"/>
-        <v>«SITE-HTTP»/posts-by-date</v>
+        <f t="shared" si="81"/>
+        <v>«SITE-HTTP»/subscribe</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="str">
         <f>SUBSTITUTE(LOWER(G30)," ","-")</f>
-        <v>posts-by-tag</v>
+        <v>posts-by-date</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="24" t="str">
-        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
+        <f>YEAR($J$11)&amp;TEXT("-"&amp;MONTH($J$11),"00")&amp;TEXT("-"&amp;DAY($J$11),"00")</f>
         <v>2018-03-02</v>
       </c>
       <c r="K30" s="10" t="str">
         <f ca="1">IF(TODAY()-DATEVALUE(J30)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J30)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
-      <c r="L30" s="20">
-        <f>L$10</f>
-        <v>43070</v>
-      </c>
+      <c r="L30" s="20"/>
       <c r="M30" s="13"/>
       <c r="P30" s="2" t="s">
         <v>16</v>
@@ -3584,315 +3605,288 @@
         <v>Sitemap</v>
       </c>
       <c r="S30" s="7" t="str">
-        <f>$S$9</f>
+        <f>$S$10</f>
         <v>logo.png</v>
       </c>
       <c r="T30" s="7" t="str">
-        <f>$T$9</f>
+        <f>$T$10</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U30" s="7" t="str">
         <f>"Archive of "&amp;G30</f>
-        <v>Archive of Posts by tag</v>
+        <v>Archive of Posts by date</v>
       </c>
       <c r="V30" s="7" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>website</v>
       </c>
       <c r="X30" s="7" t="str">
-        <f t="shared" si="77"/>
-        <v>«SITE-HTTP»/posts-by-tag</v>
+        <f t="shared" si="81"/>
+        <v>«SITE-HTTP»/posts-by-date</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>118</v>
+      <c r="A31" s="7" t="str">
+        <f>SUBSTITUTE(LOWER(G31)," ","-")</f>
+        <v>posts-by-tag</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="I31" s="19"/>
       <c r="J31" s="24" t="str">
-        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
+        <f>YEAR($J$11)&amp;TEXT("-"&amp;MONTH($J$11),"00")&amp;TEXT("-"&amp;DAY($J$11),"00")</f>
         <v>2018-03-02</v>
       </c>
       <c r="K31" s="10" t="str">
         <f ca="1">IF(TODAY()-DATEVALUE(J31)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J31)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
-      <c r="L31" s="3">
-        <v>43141</v>
-      </c>
-      <c r="M31" s="13">
-        <f t="shared" ref="M31" si="86">DAY(L31)</f>
-        <v>10</v>
-      </c>
-      <c r="N31" s="6">
-        <f t="shared" ref="N31" si="87">MONTH(L31)</f>
-        <v>2</v>
-      </c>
-      <c r="O31" s="6">
-        <f t="shared" ref="O31" si="88">YEAR(L31)</f>
-        <v>2018</v>
-      </c>
+      <c r="L31" s="20"/>
+      <c r="M31" s="13"/>
       <c r="P31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S31" s="7" t="s">
-        <v>41</v>
+      <c r="Q31" s="2" t="str">
+        <f>Tags!$A$11</f>
+        <v>Sitemap</v>
+      </c>
+      <c r="S31" s="7" t="str">
+        <f>$S$10</f>
+        <v>logo.png</v>
       </c>
       <c r="T31" s="7" t="str">
-        <f>$T$9</f>
+        <f>$T$10</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U31" s="7" t="str">
         <f>"Archive of "&amp;G31</f>
-        <v>Archive of Games</v>
+        <v>Archive of Posts by tag</v>
       </c>
       <c r="V31" s="7" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>website</v>
       </c>
       <c r="X31" s="7" t="str">
-        <f t="shared" si="77"/>
-        <v>«SITE-HTTP»/games</v>
+        <f t="shared" si="81"/>
+        <v>«SITE-HTTP»/posts-by-tag</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
       <c r="D32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M32" s="14"/>
-      <c r="W32" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="X32" s="9" t="str">
-        <f t="shared" si="77"/>
-        <v>«SITE-HTTP»/robots</v>
+        <v>119</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="24" t="str">
+        <f>YEAR($J$11)&amp;TEXT("-"&amp;MONTH($J$11),"00")&amp;TEXT("-"&amp;DAY($J$11),"00")</f>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K32" s="10" t="str">
+        <f ca="1">IF(TODAY()-DATEVALUE(J32)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J32)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L32" s="3">
+        <v>43141</v>
+      </c>
+      <c r="M32" s="13">
+        <f t="shared" ref="M32" si="90">DAY(L32)</f>
+        <v>10</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" ref="N32" si="91">MONTH(L32)</f>
+        <v>2</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" ref="O32" si="92">YEAR(L32)</f>
+        <v>2018</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T32" s="7" t="str">
+        <f>$T$10</f>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U32" s="7" t="str">
+        <f>"Archive of "&amp;G32</f>
+        <v>Archive of Games</v>
+      </c>
+      <c r="V32" s="7" t="str">
+        <f t="shared" si="80"/>
+        <v>website</v>
+      </c>
+      <c r="X32" s="7" t="str">
+        <f t="shared" si="81"/>
+        <v>«SITE-HTTP»/games</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M33" s="14"/>
       <c r="W33" s="9" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="X33" s="9" t="str">
-        <f t="shared" si="77"/>
-        <v>«SITE-HTTP»/sitemap</v>
+        <f t="shared" si="81"/>
+        <v>«SITE-HTTP»/robots</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="24" t="str">
-        <f>YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
-      </c>
-      <c r="K34" s="10" t="str">
-        <f t="shared" ref="K34" ca="1" si="89">IF(TODAY()-DATEVALUE(J34)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J34)&lt;60,"monthly","yearly"))</f>
-        <v>yearly</v>
-      </c>
-      <c r="L34" s="21"/>
+        <v>91</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="M34" s="14"/>
       <c r="W34" s="9" t="s">
         <v>81</v>
       </c>
       <c r="X34" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
+        <v>«SITE-HTTP»/sitemap</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="24" t="str">
+        <f>YEAR($J$11)&amp;TEXT("-"&amp;MONTH($J$11),"00")&amp;TEXT("-"&amp;DAY($J$11),"00")</f>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K35" s="10" t="str">
+        <f t="shared" ref="K35" ca="1" si="93">IF(TODAY()-DATEVALUE(J35)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J35)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L35" s="21"/>
+      <c r="M35" s="14"/>
+      <c r="W35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="X35" s="9" t="str">
+        <f t="shared" si="81"/>
         <v>«SITE-HTTP»/rss</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="str">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="str">
         <f>"tag-"&amp;SUBSTITUTE(Tags!$A2," ","-")</f>
         <v>tag-Platformer</v>
       </c>
-      <c r="B35" s="25" t="str">
+      <c r="B36" s="25" t="str">
         <f>Tags!$B2</f>
         <v>Yes</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="11" t="str">
-        <f>D$40</f>
+      <c r="C36" s="25"/>
+      <c r="D36" s="11" t="str">
+        <f>D$41</f>
         <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
-      <c r="E35" s="11" t="str">
-        <f>$E$40</f>
+      <c r="E36" s="11" t="str">
+        <f>$E$41</f>
         <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F36" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="11" t="str">
-        <f>"All"&amp;" "&amp;H35&amp;" games"</f>
+      <c r="G36" s="11" t="str">
+        <f>"All"&amp;" "&amp;H36&amp;" games"</f>
         <v>All Platformer games</v>
       </c>
-      <c r="H35" s="11" t="str">
+      <c r="H36" s="11" t="str">
         <f>Tags!$A2</f>
         <v>Platformer</v>
       </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22" t="str">
-        <f t="shared" ref="J35:J50" si="90">YEAR($J$10)&amp;TEXT("-"&amp;MONTH($J$10),"00")&amp;TEXT("-"&amp;DAY($J$10),"00")</f>
-        <v>2018-03-02</v>
-      </c>
-      <c r="K35" s="22" t="str">
-        <f t="shared" ca="1" si="83"/>
-        <v>yearly</v>
-      </c>
-      <c r="L35" s="29">
-        <v>41773</v>
-      </c>
-      <c r="M35" s="15">
-        <f t="shared" ref="M35:M45" si="91">DAY(L35)</f>
-        <v>14</v>
-      </c>
-      <c r="N35" s="30">
-        <f t="shared" ref="N35:N45" si="92">MONTH(L35)</f>
-        <v>5</v>
-      </c>
-      <c r="O35" s="30">
-        <f t="shared" ref="O35:O45" si="93">YEAR(L35)</f>
-        <v>2014</v>
-      </c>
-      <c r="P35" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="25" t="str">
-        <f>Tags!$A$12</f>
-        <v>Class</v>
-      </c>
-      <c r="R35" s="12"/>
-      <c r="S35" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="T35" s="11" t="str">
-        <f>$T$9</f>
-        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
-      </c>
-      <c r="U35" s="11" t="str">
-        <f>G35&amp;" in the «SITE-NAME»"</f>
-        <v>All Platformer games in the «SITE-NAME»</v>
-      </c>
-      <c r="V35" s="12"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11" t="str">
-        <f t="shared" ref="X35:X46" si="94">"«SITE-HTTP»/"&amp;A35</f>
-        <v>«SITE-HTTP»/tag-Platformer</v>
-      </c>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A3," ","-")</f>
-        <v>tag-Puzzle</v>
-      </c>
-      <c r="B36" s="25" t="str">
-        <f>Tags!$B3</f>
-        <v>Yes</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="11" t="str">
-        <f>D$40</f>
-        <v>«PAGE-FEATURED-EMPTY»</v>
-      </c>
-      <c r="E36" s="11" t="str">
-        <f>$E$40</f>
-        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
-      </c>
-      <c r="F36" s="25" t="str">
-        <f>F$35</f>
-        <v>archive</v>
-      </c>
-      <c r="G36" s="11" t="str">
-        <f>"All"&amp;" "&amp;H36&amp;"s"</f>
-        <v>All Puzzles</v>
-      </c>
-      <c r="H36" s="11" t="str">
-        <f>Tags!$A3</f>
-        <v>Puzzle</v>
-      </c>
       <c r="I36" s="22"/>
       <c r="J36" s="22" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" ref="J36:J52" si="94">YEAR($J$11)&amp;TEXT("-"&amp;MONTH($J$11),"00")&amp;TEXT("-"&amp;DAY($J$11),"00")</f>
         <v>2018-03-02</v>
       </c>
       <c r="K36" s="22" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="87"/>
         <v>yearly</v>
       </c>
       <c r="L36" s="29">
         <v>41773</v>
       </c>
       <c r="M36" s="15">
-        <f t="shared" si="91"/>
+        <f t="shared" ref="M36:M46" si="95">DAY(L36)</f>
         <v>14</v>
       </c>
       <c r="N36" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" ref="N36:N46" si="96">MONTH(L36)</f>
         <v>5</v>
       </c>
       <c r="O36" s="30">
-        <f t="shared" si="93"/>
+        <f t="shared" ref="O36:O46" si="97">YEAR(L36)</f>
         <v>2014</v>
       </c>
-      <c r="P36" s="25" t="str">
-        <f>$P$35</f>
-        <v>Tag</v>
+      <c r="P36" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="Q36" s="25" t="str">
         <f>Tags!$A$12</f>
@@ -3903,18 +3897,18 @@
         <v>41</v>
       </c>
       <c r="T36" s="11" t="str">
-        <f t="shared" ref="T36:T50" si="95">$T$9</f>
+        <f>$T$10</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U36" s="11" t="str">
-        <f t="shared" ref="U36:U50" si="96">G36&amp;" in the «SITE-NAME»"</f>
-        <v>All Puzzles in the «SITE-NAME»</v>
+        <f>G36&amp;" in the «SITE-NAME»"</f>
+        <v>All Platformer games in the «SITE-NAME»</v>
       </c>
       <c r="V36" s="12"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11" t="str">
-        <f t="shared" si="94"/>
-        <v>«SITE-HTTP»/tag-Puzzle</v>
+        <f t="shared" ref="X36:X47" si="98">"«SITE-HTTP»/"&amp;A36</f>
+        <v>«SITE-HTTP»/tag-Platformer</v>
       </c>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
@@ -3927,58 +3921,60 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A4," ","-")</f>
-        <v>tag-Post</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A3," ","-")</f>
+        <v>tag-Puzzle</v>
       </c>
       <c r="B37" s="25" t="str">
-        <f>Tags!$B4</f>
+        <f>Tags!$B3</f>
         <v>Yes</v>
       </c>
       <c r="C37" s="25"/>
-      <c r="D37" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>102</v>
+      <c r="D37" s="11" t="str">
+        <f>D$41</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
+      </c>
+      <c r="E37" s="11" t="str">
+        <f>$E$41</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F37" s="25" t="str">
-        <f t="shared" ref="F37:F50" si="97">F$35</f>
+        <f>F$36</f>
         <v>archive</v>
       </c>
       <c r="G37" s="11" t="str">
         <f>"All"&amp;" "&amp;H37&amp;"s"</f>
-        <v>All Posts</v>
+        <v>All Puzzles</v>
       </c>
       <c r="H37" s="11" t="str">
-        <f>Tags!$A4</f>
-        <v>Post</v>
+        <f>Tags!$A3</f>
+        <v>Puzzle</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>2018-03-02</v>
       </c>
       <c r="K37" s="22" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="87"/>
         <v>yearly</v>
       </c>
       <c r="L37" s="29">
-        <v>43070</v>
+        <v>41773</v>
       </c>
       <c r="M37" s="15">
-        <f t="shared" si="91"/>
-        <v>1</v>
+        <f t="shared" si="95"/>
+        <v>14</v>
       </c>
       <c r="N37" s="30">
-        <f t="shared" si="92"/>
-        <v>12</v>
+        <f t="shared" si="96"/>
+        <v>5</v>
       </c>
       <c r="O37" s="30">
-        <f t="shared" si="93"/>
-        <v>2017</v>
+        <f t="shared" si="97"/>
+        <v>2014</v>
       </c>
       <c r="P37" s="25" t="str">
-        <f t="shared" ref="P37:P50" si="98">$P$35</f>
+        <f>$P$36</f>
         <v>Tag</v>
       </c>
       <c r="Q37" s="25" t="str">
@@ -3990,18 +3986,18 @@
         <v>41</v>
       </c>
       <c r="T37" s="11" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" ref="T37:T52" si="99">$T$10</f>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U37" s="11" t="str">
-        <f t="shared" si="96"/>
-        <v>All Posts in the «SITE-NAME»</v>
+        <f t="shared" ref="U37:U51" si="100">G37&amp;" in the «SITE-NAME»"</f>
+        <v>All Puzzles in the «SITE-NAME»</v>
       </c>
       <c r="V37" s="12"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11" t="str">
-        <f t="shared" si="94"/>
-        <v>«SITE-HTTP»/tag-Post</v>
+        <f t="shared" si="98"/>
+        <v>«SITE-HTTP»/tag-Puzzle</v>
       </c>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
@@ -4014,60 +4010,58 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A5," ","-")</f>
-        <v>tag-Finance</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A4," ","-")</f>
+        <v>tag-Post</v>
       </c>
       <c r="B38" s="25" t="str">
-        <f>Tags!$B5</f>
-        <v>No</v>
+        <f>Tags!$B4</f>
+        <v>Yes</v>
       </c>
       <c r="C38" s="25"/>
-      <c r="D38" s="11" t="str">
-        <f>$D$37</f>
-        <v>«PAGE-SIMPLE»</v>
-      </c>
-      <c r="E38" s="11" t="str">
-        <f>$E$37</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      <c r="D38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="F38" s="25" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" ref="F38:F52" si="101">F$36</f>
         <v>archive</v>
       </c>
       <c r="G38" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A5&amp;"'"</f>
-        <v>Classed as 'Finance'</v>
+        <f>"All"&amp;" "&amp;H38&amp;"s"</f>
+        <v>All Posts</v>
       </c>
       <c r="H38" s="11" t="str">
-        <f>Tags!$A5</f>
-        <v>Finance</v>
+        <f>Tags!$A4</f>
+        <v>Post</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="22" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>2018-03-02</v>
       </c>
       <c r="K38" s="22" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="87"/>
         <v>yearly</v>
       </c>
       <c r="L38" s="29">
-        <v>43139</v>
+        <v>43070</v>
       </c>
       <c r="M38" s="15">
-        <f t="shared" si="91"/>
-        <v>8</v>
+        <f t="shared" si="95"/>
+        <v>1</v>
       </c>
       <c r="N38" s="30">
-        <f t="shared" si="92"/>
-        <v>2</v>
+        <f t="shared" si="96"/>
+        <v>12</v>
       </c>
       <c r="O38" s="30">
-        <f t="shared" si="93"/>
-        <v>2018</v>
+        <f t="shared" si="97"/>
+        <v>2017</v>
       </c>
       <c r="P38" s="25" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="P38:P52" si="102">$P$36</f>
         <v>Tag</v>
       </c>
       <c r="Q38" s="25" t="str">
@@ -4079,18 +4073,18 @@
         <v>41</v>
       </c>
       <c r="T38" s="11" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U38" s="11" t="str">
-        <f t="shared" si="96"/>
-        <v>Classed as 'Finance' in the «SITE-NAME»</v>
+        <f t="shared" si="100"/>
+        <v>All Posts in the «SITE-NAME»</v>
       </c>
       <c r="V38" s="12"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11" t="str">
-        <f t="shared" si="94"/>
-        <v>«SITE-HTTP»/tag-Finance</v>
+        <f t="shared" si="98"/>
+        <v>«SITE-HTTP»/tag-Post</v>
       </c>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
@@ -4103,60 +4097,60 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A6," ","-")</f>
-        <v>tag-Creative-Archive</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A5," ","-")</f>
+        <v>tag-Finance</v>
       </c>
       <c r="B39" s="25" t="str">
-        <f>Tags!$B6</f>
-        <v>Yes</v>
+        <f>Tags!$B5</f>
+        <v>No</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="11" t="str">
-        <f>$D$37</f>
+        <f>$D$38</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E39" s="11" t="str">
-        <f>$E$37</f>
+        <f>$E$38</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F39" s="25" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>archive</v>
       </c>
       <c r="G39" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A6&amp;"'"</f>
-        <v>Classed as 'Creative-Archive'</v>
+        <f>"Classed as '"&amp;Tags!$A5&amp;"'"</f>
+        <v>Classed as 'Finance'</v>
       </c>
       <c r="H39" s="11" t="str">
-        <f>Tags!$A6</f>
-        <v>Creative-Archive</v>
+        <f>Tags!$A5</f>
+        <v>Finance</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>2018-03-02</v>
       </c>
       <c r="K39" s="22" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="87"/>
         <v>yearly</v>
       </c>
       <c r="L39" s="29">
-        <v>43069</v>
+        <v>43139</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="91"/>
-        <v>30</v>
+        <f t="shared" si="95"/>
+        <v>8</v>
       </c>
       <c r="N39" s="30">
-        <f t="shared" si="92"/>
-        <v>11</v>
+        <f t="shared" si="96"/>
+        <v>2</v>
       </c>
       <c r="O39" s="30">
-        <f t="shared" si="93"/>
-        <v>2017</v>
+        <f t="shared" si="97"/>
+        <v>2018</v>
       </c>
       <c r="P39" s="25" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>Tag</v>
       </c>
       <c r="Q39" s="25" t="str">
@@ -4168,18 +4162,18 @@
         <v>41</v>
       </c>
       <c r="T39" s="11" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U39" s="11" t="str">
-        <f t="shared" si="96"/>
-        <v>Classed as 'Creative-Archive' in the «SITE-NAME»</v>
+        <f t="shared" si="100"/>
+        <v>Classed as 'Finance' in the «SITE-NAME»</v>
       </c>
       <c r="V39" s="12"/>
       <c r="W39" s="11"/>
       <c r="X39" s="11" t="str">
-        <f t="shared" si="94"/>
-        <v>«SITE-HTTP»/tag-Creative-Archive</v>
+        <f t="shared" si="98"/>
+        <v>«SITE-HTTP»/tag-Finance</v>
       </c>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
@@ -4192,60 +4186,60 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A7," ","-")</f>
-        <v>tag-Mosaic</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A6," ","-")</f>
+        <v>tag-Creative-Archive</v>
       </c>
       <c r="B40" s="25" t="str">
-        <f>Tags!$B7</f>
-        <v>No</v>
-      </c>
-      <c r="C40" s="32">
-        <v>5</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>106</v>
+        <f>Tags!$B6</f>
+        <v>Yes</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="11" t="str">
+        <f>$D$38</f>
+        <v>«PAGE-SIMPLE»</v>
+      </c>
+      <c r="E40" s="11" t="str">
+        <f>$E$38</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F40" s="25" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>archive</v>
       </c>
       <c r="G40" s="11" t="str">
-        <f>H40&amp;"s"</f>
-        <v>Mosaics</v>
+        <f>"Classed as '"&amp;Tags!$A6&amp;"'"</f>
+        <v>Classed as 'Creative-Archive'</v>
       </c>
       <c r="H40" s="11" t="str">
-        <f>Tags!$A7</f>
-        <v>Mosaic</v>
+        <f>Tags!$A6</f>
+        <v>Creative-Archive</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="22" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>2018-03-02</v>
       </c>
       <c r="K40" s="22" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="87"/>
         <v>yearly</v>
       </c>
       <c r="L40" s="29">
-        <v>43018</v>
+        <v>43069</v>
       </c>
       <c r="M40" s="15">
-        <f t="shared" si="91"/>
-        <v>10</v>
+        <f t="shared" si="95"/>
+        <v>30</v>
       </c>
       <c r="N40" s="30">
-        <f t="shared" si="92"/>
-        <v>10</v>
+        <f t="shared" si="96"/>
+        <v>11</v>
       </c>
       <c r="O40" s="30">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>2017</v>
       </c>
       <c r="P40" s="25" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>Tag</v>
       </c>
       <c r="Q40" s="25" t="str">
@@ -4257,18 +4251,18 @@
         <v>41</v>
       </c>
       <c r="T40" s="11" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U40" s="11" t="str">
-        <f t="shared" si="96"/>
-        <v>Mosaics in the «SITE-NAME»</v>
+        <f t="shared" si="100"/>
+        <v>Classed as 'Creative-Archive' in the «SITE-NAME»</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11" t="str">
-        <f t="shared" si="94"/>
-        <v>«SITE-HTTP»/tag-Mosaic</v>
+        <f t="shared" si="98"/>
+        <v>«SITE-HTTP»/tag-Creative-Archive</v>
       </c>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
@@ -4281,60 +4275,60 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A8," ","-")</f>
-        <v>tag-Travel</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A7," ","-")</f>
+        <v>tag-Mosaic</v>
       </c>
       <c r="B41" s="25" t="str">
-        <f>Tags!$B8</f>
+        <f>Tags!$B7</f>
         <v>No</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="11" t="str">
-        <f>$D$37</f>
-        <v>«PAGE-SIMPLE»</v>
-      </c>
-      <c r="E41" s="11" t="str">
-        <f>$E$37</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      <c r="C41" s="32">
+        <v>5</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="F41" s="25" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>archive</v>
       </c>
       <c r="G41" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A8&amp;"'"</f>
-        <v>Classed as 'Travel'</v>
+        <f>H41&amp;"s"</f>
+        <v>Mosaics</v>
       </c>
       <c r="H41" s="11" t="str">
-        <f>Tags!$A8</f>
-        <v>Travel</v>
+        <f>Tags!$A7</f>
+        <v>Mosaic</v>
       </c>
       <c r="I41" s="22"/>
       <c r="J41" s="22" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>2018-03-02</v>
       </c>
       <c r="K41" s="22" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="87"/>
         <v>yearly</v>
       </c>
       <c r="L41" s="29">
         <v>43018</v>
       </c>
       <c r="M41" s="15">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>10</v>
       </c>
       <c r="N41" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>10</v>
       </c>
       <c r="O41" s="30">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>2017</v>
       </c>
       <c r="P41" s="25" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>Tag</v>
       </c>
       <c r="Q41" s="25" t="str">
@@ -4346,18 +4340,18 @@
         <v>41</v>
       </c>
       <c r="T41" s="11" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U41" s="11" t="str">
-        <f t="shared" si="96"/>
-        <v>Classed as 'Travel' in the «SITE-NAME»</v>
+        <f t="shared" si="100"/>
+        <v>Mosaics in the «SITE-NAME»</v>
       </c>
       <c r="V41" s="12"/>
       <c r="W41" s="11"/>
       <c r="X41" s="11" t="str">
-        <f t="shared" si="94"/>
-        <v>«SITE-HTTP»/tag-Travel</v>
+        <f t="shared" si="98"/>
+        <v>«SITE-HTTP»/tag-Mosaic</v>
       </c>
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
@@ -4370,60 +4364,60 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A9," ","-")</f>
-        <v>tag-Wallpaper</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A8," ","-")</f>
+        <v>tag-Travel</v>
       </c>
       <c r="B42" s="25" t="str">
-        <f>Tags!$B9</f>
+        <f>Tags!$B8</f>
         <v>No</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="11" t="str">
-        <f>D$40</f>
-        <v>«PAGE-FEATURED-EMPTY»</v>
+        <f>$D$38</f>
+        <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E42" s="11" t="str">
-        <f>E$40</f>
-        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$38</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F42" s="25" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>archive</v>
       </c>
       <c r="G42" s="11" t="str">
-        <f>"All"&amp;" "&amp;H42&amp;"s"</f>
-        <v>All Wallpapers</v>
+        <f>"Classed as '"&amp;Tags!$A8&amp;"'"</f>
+        <v>Classed as 'Travel'</v>
       </c>
       <c r="H42" s="11" t="str">
-        <f>Tags!$A9</f>
-        <v>Wallpaper</v>
+        <f>Tags!$A8</f>
+        <v>Travel</v>
       </c>
       <c r="I42" s="22"/>
       <c r="J42" s="22" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>2018-03-02</v>
       </c>
       <c r="K42" s="22" t="str">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="87"/>
         <v>yearly</v>
       </c>
       <c r="L42" s="29">
         <v>43018</v>
       </c>
       <c r="M42" s="15">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>10</v>
       </c>
       <c r="N42" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>10</v>
       </c>
       <c r="O42" s="30">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>2017</v>
       </c>
       <c r="P42" s="25" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>Tag</v>
       </c>
       <c r="Q42" s="25" t="str">
@@ -4435,18 +4429,18 @@
         <v>41</v>
       </c>
       <c r="T42" s="11" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U42" s="11" t="str">
-        <f t="shared" si="96"/>
-        <v>All Wallpapers in the «SITE-NAME»</v>
+        <f t="shared" si="100"/>
+        <v>Classed as 'Travel' in the «SITE-NAME»</v>
       </c>
       <c r="V42" s="12"/>
       <c r="W42" s="11"/>
       <c r="X42" s="11" t="str">
-        <f t="shared" si="94"/>
-        <v>«SITE-HTTP»/tag-Wallpaper</v>
+        <f t="shared" si="98"/>
+        <v>«SITE-HTTP»/tag-Travel</v>
       </c>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
@@ -4459,60 +4453,60 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A10," ","-")</f>
-        <v>tag-Game</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A9," ","-")</f>
+        <v>tag-Wallpaper</v>
       </c>
       <c r="B43" s="25" t="str">
-        <f>Tags!$B10</f>
-        <v>Yes</v>
+        <f>Tags!$B9</f>
+        <v>No</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="11" t="str">
-        <f>D$40</f>
+        <f>D$41</f>
         <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
       <c r="E43" s="11" t="str">
-        <f>$E$40</f>
+        <f>E$41</f>
         <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F43" s="25" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>archive</v>
       </c>
       <c r="G43" s="11" t="str">
         <f>"All"&amp;" "&amp;H43&amp;"s"</f>
-        <v>All Games</v>
+        <v>All Wallpapers</v>
       </c>
       <c r="H43" s="11" t="str">
-        <f>Tags!$A10</f>
-        <v>Game</v>
+        <f>Tags!$A9</f>
+        <v>Wallpaper</v>
       </c>
       <c r="I43" s="22"/>
       <c r="J43" s="22" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>2018-03-02</v>
       </c>
       <c r="K43" s="22" t="str">
-        <f t="shared" ref="K43" ca="1" si="99">IF(TODAY()-DATEVALUE(J43)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J43)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ca="1" si="87"/>
         <v>yearly</v>
       </c>
       <c r="L43" s="29">
-        <v>41773</v>
+        <v>43018</v>
       </c>
       <c r="M43" s="15">
-        <f t="shared" si="91"/>
-        <v>14</v>
+        <f t="shared" si="95"/>
+        <v>10</v>
       </c>
       <c r="N43" s="30">
-        <f t="shared" si="92"/>
-        <v>5</v>
+        <f t="shared" si="96"/>
+        <v>10</v>
       </c>
       <c r="O43" s="30">
-        <f t="shared" si="93"/>
-        <v>2014</v>
+        <f t="shared" si="97"/>
+        <v>2017</v>
       </c>
       <c r="P43" s="25" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>Tag</v>
       </c>
       <c r="Q43" s="25" t="str">
@@ -4524,18 +4518,18 @@
         <v>41</v>
       </c>
       <c r="T43" s="11" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U43" s="11" t="str">
-        <f t="shared" si="96"/>
-        <v>All Games in the «SITE-NAME»</v>
+        <f t="shared" si="100"/>
+        <v>All Wallpapers in the «SITE-NAME»</v>
       </c>
       <c r="V43" s="12"/>
       <c r="W43" s="11"/>
       <c r="X43" s="11" t="str">
-        <f t="shared" si="94"/>
-        <v>«SITE-HTTP»/tag-Game</v>
+        <f t="shared" si="98"/>
+        <v>«SITE-HTTP»/tag-Wallpaper</v>
       </c>
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
@@ -4548,60 +4542,60 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A11," ","-")</f>
-        <v>tag-Sitemap</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A10," ","-")</f>
+        <v>tag-Game</v>
       </c>
       <c r="B44" s="25" t="str">
-        <f>Tags!$B11</f>
+        <f>Tags!$B10</f>
         <v>Yes</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="11" t="str">
-        <f>$D$37</f>
-        <v>«PAGE-SIMPLE»</v>
+        <f>D$41</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
       <c r="E44" s="11" t="str">
-        <f>$E$37</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$41</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F44" s="25" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>archive</v>
       </c>
       <c r="G44" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A11&amp;"'"</f>
-        <v>Classed as 'Sitemap'</v>
+        <f>"All"&amp;" "&amp;H44&amp;"s"</f>
+        <v>All Games</v>
       </c>
       <c r="H44" s="11" t="str">
-        <f>Tags!$A11</f>
-        <v>Sitemap</v>
+        <f>Tags!$A10</f>
+        <v>Game</v>
       </c>
       <c r="I44" s="22"/>
       <c r="J44" s="22" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>2018-03-02</v>
       </c>
       <c r="K44" s="22" t="str">
-        <f t="shared" ref="K44" ca="1" si="100">IF(TODAY()-DATEVALUE(J44)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J44)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K44" ca="1" si="103">IF(TODAY()-DATEVALUE(J44)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J44)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L44" s="29">
-        <v>43070</v>
+        <v>41773</v>
       </c>
       <c r="M44" s="15">
-        <f t="shared" si="91"/>
-        <v>1</v>
+        <f t="shared" si="95"/>
+        <v>14</v>
       </c>
       <c r="N44" s="30">
-        <f t="shared" si="92"/>
-        <v>12</v>
+        <f t="shared" si="96"/>
+        <v>5</v>
       </c>
       <c r="O44" s="30">
-        <f t="shared" si="93"/>
-        <v>2017</v>
+        <f t="shared" si="97"/>
+        <v>2014</v>
       </c>
       <c r="P44" s="25" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>Tag</v>
       </c>
       <c r="Q44" s="25" t="str">
@@ -4613,18 +4607,18 @@
         <v>41</v>
       </c>
       <c r="T44" s="11" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U44" s="11" t="str">
-        <f t="shared" si="96"/>
-        <v>Classed as 'Sitemap' in the «SITE-NAME»</v>
+        <f t="shared" si="100"/>
+        <v>All Games in the «SITE-NAME»</v>
       </c>
       <c r="V44" s="12"/>
       <c r="W44" s="11"/>
       <c r="X44" s="11" t="str">
-        <f t="shared" si="94"/>
-        <v>«SITE-HTTP»/tag-Sitemap</v>
+        <f t="shared" si="98"/>
+        <v>«SITE-HTTP»/tag-Game</v>
       </c>
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
@@ -4637,60 +4631,60 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A12," ","-")</f>
-        <v>tag-Class</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A11," ","-")</f>
+        <v>tag-Sitemap</v>
       </c>
       <c r="B45" s="25" t="str">
-        <f>Tags!$B12</f>
-        <v>No</v>
+        <f>Tags!$B11</f>
+        <v>Yes</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="11" t="str">
-        <f>$D$37</f>
+        <f>$D$38</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E45" s="11" t="str">
-        <f>$E$37</f>
+        <f>$E$38</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F45" s="25" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>archive</v>
       </c>
       <c r="G45" s="11" t="str">
-        <f>"All"&amp;" "&amp;H45&amp;"es"</f>
-        <v>All Classes</v>
+        <f>"Classed as '"&amp;Tags!$A11&amp;"'"</f>
+        <v>Classed as 'Sitemap'</v>
       </c>
       <c r="H45" s="11" t="str">
-        <f>Tags!$A12</f>
-        <v>Class</v>
+        <f>Tags!$A11</f>
+        <v>Sitemap</v>
       </c>
       <c r="I45" s="22"/>
       <c r="J45" s="22" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>2018-03-02</v>
       </c>
       <c r="K45" s="22" t="str">
-        <f t="shared" ref="K45" ca="1" si="101">IF(TODAY()-DATEVALUE(J45)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J45)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K45" ca="1" si="104">IF(TODAY()-DATEVALUE(J45)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J45)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L45" s="29">
-        <v>41773</v>
+        <v>43070</v>
       </c>
       <c r="M45" s="15">
-        <f t="shared" si="91"/>
-        <v>14</v>
+        <f t="shared" si="95"/>
+        <v>1</v>
       </c>
       <c r="N45" s="30">
-        <f t="shared" si="92"/>
-        <v>5</v>
+        <f t="shared" si="96"/>
+        <v>12</v>
       </c>
       <c r="O45" s="30">
-        <f t="shared" si="93"/>
-        <v>2014</v>
+        <f t="shared" si="97"/>
+        <v>2017</v>
       </c>
       <c r="P45" s="25" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>Tag</v>
       </c>
       <c r="Q45" s="25" t="str">
@@ -4702,18 +4696,18 @@
         <v>41</v>
       </c>
       <c r="T45" s="11" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U45" s="11" t="str">
-        <f t="shared" si="96"/>
-        <v>All Classes in the «SITE-NAME»</v>
+        <f t="shared" si="100"/>
+        <v>Classed as 'Sitemap' in the «SITE-NAME»</v>
       </c>
       <c r="V45" s="12"/>
       <c r="W45" s="11"/>
       <c r="X45" s="11" t="str">
-        <f t="shared" si="94"/>
-        <v>«SITE-HTTP»/tag-Class</v>
+        <f t="shared" si="98"/>
+        <v>«SITE-HTTP»/tag-Sitemap</v>
       </c>
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
@@ -4726,60 +4720,60 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A13," ","-")</f>
-        <v>tag-Nature</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A12," ","-")</f>
+        <v>tag-Class</v>
       </c>
       <c r="B46" s="25" t="str">
-        <f>Tags!$B13</f>
+        <f>Tags!$B12</f>
         <v>No</v>
       </c>
       <c r="C46" s="25"/>
       <c r="D46" s="11" t="str">
-        <f>$D$37</f>
+        <f>$D$38</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E46" s="11" t="str">
-        <f>$E$37</f>
+        <f>$E$38</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F46" s="25" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>archive</v>
       </c>
       <c r="G46" s="11" t="str">
-        <f>"Classed as '"&amp;Tags!$A13&amp;"'"</f>
-        <v>Classed as 'Nature'</v>
+        <f>"All"&amp;" "&amp;H46&amp;"es"</f>
+        <v>All Classes</v>
       </c>
       <c r="H46" s="11" t="str">
-        <f>Tags!$A13</f>
-        <v>Nature</v>
+        <f>Tags!$A12</f>
+        <v>Class</v>
       </c>
       <c r="I46" s="22"/>
       <c r="J46" s="22" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>2018-03-02</v>
       </c>
       <c r="K46" s="22" t="str">
-        <f t="shared" ref="K46" ca="1" si="102">IF(TODAY()-DATEVALUE(J46)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J46)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K46" ca="1" si="105">IF(TODAY()-DATEVALUE(J46)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J46)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L46" s="29">
-        <v>43225</v>
+        <v>41773</v>
       </c>
       <c r="M46" s="15">
-        <f t="shared" ref="M46" si="103">DAY(L46)</f>
+        <f t="shared" si="95"/>
+        <v>14</v>
+      </c>
+      <c r="N46" s="30">
+        <f t="shared" si="96"/>
         <v>5</v>
       </c>
-      <c r="N46" s="30">
-        <f t="shared" ref="N46" si="104">MONTH(L46)</f>
-        <v>5</v>
-      </c>
       <c r="O46" s="30">
-        <f t="shared" ref="O46" si="105">YEAR(L46)</f>
-        <v>2018</v>
+        <f t="shared" si="97"/>
+        <v>2014</v>
       </c>
       <c r="P46" s="25" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>Tag</v>
       </c>
       <c r="Q46" s="25" t="str">
@@ -4791,18 +4785,18 @@
         <v>41</v>
       </c>
       <c r="T46" s="11" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U46" s="11" t="str">
-        <f t="shared" si="96"/>
-        <v>Classed as 'Nature' in the «SITE-NAME»</v>
+        <f t="shared" si="100"/>
+        <v>All Classes in the «SITE-NAME»</v>
       </c>
       <c r="V46" s="12"/>
       <c r="W46" s="11"/>
       <c r="X46" s="11" t="str">
-        <f t="shared" si="94"/>
-        <v>«SITE-HTTP»/tag-Nature</v>
+        <f t="shared" si="98"/>
+        <v>«SITE-HTTP»/tag-Class</v>
       </c>
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
@@ -4815,37 +4809,37 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A14," ","-")</f>
-        <v>tag-Role-playing</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A13," ","-")</f>
+        <v>tag-Nature</v>
       </c>
       <c r="B47" s="25" t="str">
-        <f>Tags!$B14</f>
-        <v>Yes</v>
+        <f>Tags!$B13</f>
+        <v>No</v>
       </c>
       <c r="C47" s="25"/>
       <c r="D47" s="11" t="str">
-        <f>D$40</f>
-        <v>«PAGE-FEATURED-EMPTY»</v>
+        <f>$D$38</f>
+        <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E47" s="11" t="str">
-        <f>$E$40</f>
-        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$38</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F47" s="25" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>archive</v>
       </c>
       <c r="G47" s="11" t="str">
-        <f>"All"&amp;" "&amp;H47&amp;" games"</f>
-        <v>All Role-playing games</v>
+        <f>"Classed as '"&amp;Tags!$A13&amp;"'"</f>
+        <v>Classed as 'Nature'</v>
       </c>
       <c r="H47" s="11" t="str">
-        <f>Tags!$A14</f>
-        <v>Role-playing</v>
+        <f>Tags!$A13</f>
+        <v>Nature</v>
       </c>
       <c r="I47" s="22"/>
       <c r="J47" s="22" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>2018-03-02</v>
       </c>
       <c r="K47" s="22" t="str">
@@ -4853,22 +4847,22 @@
         <v>yearly</v>
       </c>
       <c r="L47" s="29">
-        <v>43320</v>
+        <v>43225</v>
       </c>
       <c r="M47" s="15">
         <f t="shared" ref="M47" si="107">DAY(L47)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N47" s="30">
         <f t="shared" ref="N47" si="108">MONTH(L47)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O47" s="30">
         <f t="shared" ref="O47" si="109">YEAR(L47)</f>
         <v>2018</v>
       </c>
       <c r="P47" s="25" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>Tag</v>
       </c>
       <c r="Q47" s="25" t="str">
@@ -4880,18 +4874,18 @@
         <v>41</v>
       </c>
       <c r="T47" s="11" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U47" s="11" t="str">
-        <f t="shared" si="96"/>
-        <v>All Role-playing games in the «SITE-NAME»</v>
+        <f t="shared" si="100"/>
+        <v>Classed as 'Nature' in the «SITE-NAME»</v>
       </c>
       <c r="V47" s="12"/>
       <c r="W47" s="11"/>
       <c r="X47" s="11" t="str">
-        <f t="shared" ref="X47" si="110">"«SITE-HTTP»/"&amp;A47</f>
-        <v>«SITE-HTTP»/tag-Role-playing</v>
+        <f t="shared" si="98"/>
+        <v>«SITE-HTTP»/tag-Nature</v>
       </c>
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
@@ -4904,60 +4898,60 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A15," ","-")</f>
-        <v>tag-Add-on</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A14," ","-")</f>
+        <v>tag-Role-playing</v>
       </c>
       <c r="B48" s="25" t="str">
-        <f>Tags!$B15</f>
-        <v>No</v>
+        <f>Tags!$B14</f>
+        <v>Yes</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="11" t="str">
-        <f>$D$37</f>
-        <v>«PAGE-SIMPLE»</v>
+        <f>D$41</f>
+        <v>«PAGE-FEATURED-EMPTY»</v>
       </c>
       <c r="E48" s="11" t="str">
-        <f>$E$37</f>
-        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+        <f>$E$41</f>
+        <v>«FEATURED-ITEM:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F48" s="25" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>archive</v>
       </c>
       <c r="G48" s="11" t="str">
-        <f>"All"&amp;" "&amp;H48&amp;"s"</f>
-        <v>All Add-ons</v>
+        <f>"All"&amp;" "&amp;H48&amp;" games"</f>
+        <v>All Role-playing games</v>
       </c>
       <c r="H48" s="11" t="str">
-        <f>Tags!$A15</f>
-        <v>Add-on</v>
+        <f>Tags!$A14</f>
+        <v>Role-playing</v>
       </c>
       <c r="I48" s="22"/>
       <c r="J48" s="22" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>2018-03-02</v>
       </c>
       <c r="K48" s="22" t="str">
-        <f t="shared" ref="K48" ca="1" si="111">IF(TODAY()-DATEVALUE(J48)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J48)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K48" ca="1" si="110">IF(TODAY()-DATEVALUE(J48)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J48)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L48" s="29">
-        <v>43349</v>
+        <v>43320</v>
       </c>
       <c r="M48" s="15">
-        <f t="shared" ref="M48" si="112">DAY(L48)</f>
-        <v>6</v>
+        <f t="shared" ref="M48" si="111">DAY(L48)</f>
+        <v>8</v>
       </c>
       <c r="N48" s="30">
-        <f t="shared" ref="N48" si="113">MONTH(L48)</f>
-        <v>9</v>
+        <f t="shared" ref="N48" si="112">MONTH(L48)</f>
+        <v>8</v>
       </c>
       <c r="O48" s="30">
-        <f t="shared" ref="O48" si="114">YEAR(L48)</f>
+        <f t="shared" ref="O48" si="113">YEAR(L48)</f>
         <v>2018</v>
       </c>
       <c r="P48" s="25" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>Tag</v>
       </c>
       <c r="Q48" s="25" t="str">
@@ -4969,18 +4963,18 @@
         <v>41</v>
       </c>
       <c r="T48" s="11" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U48" s="11" t="str">
-        <f t="shared" si="96"/>
-        <v>All Add-ons in the «SITE-NAME»</v>
+        <f t="shared" si="100"/>
+        <v>All Role-playing games in the «SITE-NAME»</v>
       </c>
       <c r="V48" s="12"/>
       <c r="W48" s="11"/>
       <c r="X48" s="11" t="str">
-        <f t="shared" ref="X48" si="115">"«SITE-HTTP»/"&amp;A48</f>
-        <v>«SITE-HTTP»/tag-Add-on</v>
+        <f t="shared" ref="X48" si="114">"«SITE-HTTP»/"&amp;A48</f>
+        <v>«SITE-HTTP»/tag-Role-playing</v>
       </c>
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
@@ -4993,60 +4987,60 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A16," ","-")</f>
-        <v>tag-Art</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A15," ","-")</f>
+        <v>tag-Add-on</v>
       </c>
       <c r="B49" s="25" t="str">
-        <f>Tags!$B16</f>
-        <v>Yes</v>
+        <f>Tags!$B15</f>
+        <v>No</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="11" t="str">
-        <f>$D$37</f>
+        <f>$D$38</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E49" s="11" t="str">
-        <f>$E$37</f>
+        <f>$E$38</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F49" s="25" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>archive</v>
       </c>
       <c r="G49" s="11" t="str">
-        <f>"All"&amp;" "&amp;H49</f>
-        <v>All Art</v>
+        <f>"All"&amp;" "&amp;H49&amp;"s"</f>
+        <v>All Add-ons</v>
       </c>
       <c r="H49" s="11" t="str">
-        <f>Tags!$A16</f>
-        <v>Art</v>
+        <f>Tags!$A15</f>
+        <v>Add-on</v>
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="22" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>2018-03-02</v>
       </c>
       <c r="K49" s="22" t="str">
-        <f t="shared" ref="K49" ca="1" si="116">IF(TODAY()-DATEVALUE(J49)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J49)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K49" ca="1" si="115">IF(TODAY()-DATEVALUE(J49)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J49)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L49" s="29">
-        <v>43377</v>
+        <v>43349</v>
       </c>
       <c r="M49" s="15">
-        <f t="shared" ref="M49" si="117">DAY(L49)</f>
-        <v>4</v>
+        <f t="shared" ref="M49" si="116">DAY(L49)</f>
+        <v>6</v>
       </c>
       <c r="N49" s="30">
-        <f t="shared" ref="N49" si="118">MONTH(L49)</f>
-        <v>10</v>
+        <f t="shared" ref="N49" si="117">MONTH(L49)</f>
+        <v>9</v>
       </c>
       <c r="O49" s="30">
-        <f t="shared" ref="O49" si="119">YEAR(L49)</f>
+        <f t="shared" ref="O49" si="118">YEAR(L49)</f>
         <v>2018</v>
       </c>
       <c r="P49" s="25" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>Tag</v>
       </c>
       <c r="Q49" s="25" t="str">
@@ -5058,18 +5052,18 @@
         <v>41</v>
       </c>
       <c r="T49" s="11" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U49" s="11" t="str">
-        <f t="shared" si="96"/>
-        <v>All Art in the «SITE-NAME»</v>
+        <f t="shared" si="100"/>
+        <v>All Add-ons in the «SITE-NAME»</v>
       </c>
       <c r="V49" s="12"/>
       <c r="W49" s="11"/>
       <c r="X49" s="11" t="str">
-        <f t="shared" ref="X49" si="120">"«SITE-HTTP»/"&amp;A49</f>
-        <v>«SITE-HTTP»/tag-Art</v>
+        <f t="shared" ref="X49" si="119">"«SITE-HTTP»/"&amp;A49</f>
+        <v>«SITE-HTTP»/tag-Add-on</v>
       </c>
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
@@ -5082,60 +5076,60 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="str">
-        <f>"tag-"&amp;SUBSTITUTE(Tags!$A17," ","-")</f>
-        <v>tag-Log</v>
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A16," ","-")</f>
+        <v>tag-Art</v>
       </c>
       <c r="B50" s="25" t="str">
-        <f>Tags!$B17</f>
+        <f>Tags!$B16</f>
         <v>Yes</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="11" t="str">
-        <f>$D$37</f>
+        <f>$D$38</f>
         <v>«PAGE-SIMPLE»</v>
       </c>
       <c r="E50" s="11" t="str">
-        <f>$E$37</f>
+        <f>$E$38</f>
         <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
       </c>
       <c r="F50" s="25" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>archive</v>
       </c>
       <c r="G50" s="11" t="str">
-        <f>"All Project "&amp;H50&amp;"s"</f>
-        <v>All Project Logs</v>
+        <f>"All"&amp;" "&amp;H50</f>
+        <v>All Art</v>
       </c>
       <c r="H50" s="11" t="str">
-        <f>Tags!$A17</f>
-        <v>Log</v>
+        <f>Tags!$A16</f>
+        <v>Art</v>
       </c>
       <c r="I50" s="22"/>
       <c r="J50" s="22" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>2018-03-02</v>
       </c>
       <c r="K50" s="22" t="str">
-        <f t="shared" ref="K50" ca="1" si="121">IF(TODAY()-DATEVALUE(J50)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J50)&lt;60,"monthly","yearly"))</f>
+        <f t="shared" ref="K50" ca="1" si="120">IF(TODAY()-DATEVALUE(J50)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J50)&lt;60,"monthly","yearly"))</f>
         <v>yearly</v>
       </c>
       <c r="L50" s="29">
-        <v>43426</v>
+        <v>43377</v>
       </c>
       <c r="M50" s="15">
-        <f t="shared" ref="M50" si="122">DAY(L50)</f>
-        <v>22</v>
+        <f t="shared" ref="M50" si="121">DAY(L50)</f>
+        <v>4</v>
       </c>
       <c r="N50" s="30">
-        <f t="shared" ref="N50" si="123">MONTH(L50)</f>
-        <v>11</v>
+        <f t="shared" ref="N50" si="122">MONTH(L50)</f>
+        <v>10</v>
       </c>
       <c r="O50" s="30">
-        <f t="shared" ref="O50" si="124">YEAR(L50)</f>
+        <f t="shared" ref="O50" si="123">YEAR(L50)</f>
         <v>2018</v>
       </c>
       <c r="P50" s="25" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>Tag</v>
       </c>
       <c r="Q50" s="25" t="str">
@@ -5147,18 +5141,18 @@
         <v>41</v>
       </c>
       <c r="T50" s="11" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
       </c>
       <c r="U50" s="11" t="str">
-        <f t="shared" si="96"/>
-        <v>All Project Logs in the «SITE-NAME»</v>
+        <f t="shared" si="100"/>
+        <v>All Art in the «SITE-NAME»</v>
       </c>
       <c r="V50" s="12"/>
       <c r="W50" s="11"/>
       <c r="X50" s="11" t="str">
-        <f t="shared" ref="X50" si="125">"«SITE-HTTP»/"&amp;A50</f>
-        <v>«SITE-HTTP»/tag-Log</v>
+        <f t="shared" ref="X50" si="124">"«SITE-HTTP»/"&amp;A50</f>
+        <v>«SITE-HTTP»/tag-Art</v>
       </c>
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
@@ -5169,6 +5163,184 @@
       <c r="AE50" s="12"/>
       <c r="AF50" s="12"/>
     </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A51" s="11" t="str">
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A17," ","-")</f>
+        <v>tag-Log</v>
+      </c>
+      <c r="B51" s="25" t="str">
+        <f>Tags!$B17</f>
+        <v>Yes</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="11" t="str">
+        <f>$D$38</f>
+        <v>«PAGE-SIMPLE»</v>
+      </c>
+      <c r="E51" s="11" t="str">
+        <f>$E$38</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      </c>
+      <c r="F51" s="25" t="str">
+        <f t="shared" si="101"/>
+        <v>archive</v>
+      </c>
+      <c r="G51" s="11" t="str">
+        <f>"All Project "&amp;H51&amp;"s"</f>
+        <v>All Project Logs</v>
+      </c>
+      <c r="H51" s="11" t="str">
+        <f>Tags!$A17</f>
+        <v>Log</v>
+      </c>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22" t="str">
+        <f t="shared" si="94"/>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K51" s="22" t="str">
+        <f t="shared" ref="K51" ca="1" si="125">IF(TODAY()-DATEVALUE(J51)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J51)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L51" s="29">
+        <v>43426</v>
+      </c>
+      <c r="M51" s="15">
+        <f t="shared" ref="M51" si="126">DAY(L51)</f>
+        <v>22</v>
+      </c>
+      <c r="N51" s="30">
+        <f t="shared" ref="N51" si="127">MONTH(L51)</f>
+        <v>11</v>
+      </c>
+      <c r="O51" s="30">
+        <f t="shared" ref="O51" si="128">YEAR(L51)</f>
+        <v>2018</v>
+      </c>
+      <c r="P51" s="25" t="str">
+        <f t="shared" si="102"/>
+        <v>Tag</v>
+      </c>
+      <c r="Q51" s="25" t="str">
+        <f>Tags!$A$12</f>
+        <v>Class</v>
+      </c>
+      <c r="R51" s="12"/>
+      <c r="S51" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T51" s="11" t="str">
+        <f t="shared" si="99"/>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U51" s="11" t="str">
+        <f t="shared" si="100"/>
+        <v>All Project Logs in the «SITE-NAME»</v>
+      </c>
+      <c r="V51" s="12"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11" t="str">
+        <f t="shared" ref="X51" si="129">"«SITE-HTTP»/"&amp;A51</f>
+        <v>«SITE-HTTP»/tag-Log</v>
+      </c>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="12"/>
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="str">
+        <f>"tag-"&amp;SUBSTITUTE(Tags!$A18," ","-")</f>
+        <v>tag-List</v>
+      </c>
+      <c r="B52" s="25" t="str">
+        <f>Tags!$B18</f>
+        <v>Yes</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="11" t="str">
+        <f>$D$38</f>
+        <v>«PAGE-SIMPLE»</v>
+      </c>
+      <c r="E52" s="11" t="str">
+        <f>$E$38</f>
+        <v>«TAGSELECT:Filter{"Tags"-&gt;_?(StringMatchQ[#,___~~"«POST:Load»"~~___]&amp;),"Type"-&gt;_,"Day"-&gt;_?NumberQ,"Month"-&gt;_?NumberQ,"Year"-&gt;_?NumberQ}»</v>
+      </c>
+      <c r="F52" s="25" t="str">
+        <f t="shared" si="101"/>
+        <v>archive</v>
+      </c>
+      <c r="G52" s="11" t="str">
+        <f>"All "&amp;H52&amp;"s"</f>
+        <v>All Lists</v>
+      </c>
+      <c r="H52" s="11" t="str">
+        <f>Tags!$A18</f>
+        <v>List</v>
+      </c>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22" t="str">
+        <f t="shared" si="94"/>
+        <v>2018-03-02</v>
+      </c>
+      <c r="K52" s="22" t="str">
+        <f t="shared" ref="K52" ca="1" si="130">IF(TODAY()-DATEVALUE(J52)&lt;15,"weekly",IF(TODAY()-DATEVALUE(J52)&lt;60,"monthly","yearly"))</f>
+        <v>yearly</v>
+      </c>
+      <c r="L52" s="29">
+        <v>43496</v>
+      </c>
+      <c r="M52" s="15">
+        <f t="shared" ref="M52" si="131">DAY(L52)</f>
+        <v>31</v>
+      </c>
+      <c r="N52" s="30">
+        <f t="shared" ref="N52" si="132">MONTH(L52)</f>
+        <v>1</v>
+      </c>
+      <c r="O52" s="30">
+        <f t="shared" ref="O52" si="133">YEAR(L52)</f>
+        <v>2019</v>
+      </c>
+      <c r="P52" s="25" t="str">
+        <f t="shared" si="102"/>
+        <v>Tag</v>
+      </c>
+      <c r="Q52" s="25" t="str">
+        <f>Tags!$A$12</f>
+        <v>Class</v>
+      </c>
+      <c r="R52" s="12"/>
+      <c r="S52" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T52" s="11" t="str">
+        <f t="shared" si="99"/>
+        <v>Octaflower, the Creative Archive's logo. A geometric lotus flower composed of eight rows of eight petals in rainbow progression.</v>
+      </c>
+      <c r="U52" s="11" t="str">
+        <f t="shared" ref="U52" si="134">G52&amp;" in the «SITE-NAME»"</f>
+        <v>All Lists in the «SITE-NAME»</v>
+      </c>
+      <c r="V52" s="12"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11" t="str">
+        <f t="shared" ref="X52" si="135">"«SITE-HTTP»/"&amp;A52</f>
+        <v>«SITE-HTTP»/tag-List</v>
+      </c>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5177,10 +5349,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5201,7 +5373,7 @@
         <v>96</v>
       </c>
       <c r="B2" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A2&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$29,"*"&amp;Tags!$A2&amp;"*",EN!$B$1:$B$29,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5210,7 +5382,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A3&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$29,"*"&amp;Tags!$A3&amp;"*",EN!$B$1:$B$29,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5219,7 +5391,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A4&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$29,"*"&amp;Tags!$A4&amp;"*",EN!$B$1:$B$29,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5228,7 +5400,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A5&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$29,"*"&amp;Tags!$A5&amp;"*",EN!$B$1:$B$29,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5237,7 +5409,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A6&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$29,"*"&amp;Tags!$A6&amp;"*",EN!$B$1:$B$29,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5246,7 +5418,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A7&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$29,"*"&amp;Tags!$A7&amp;"*",EN!$B$1:$B$29,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5255,7 +5427,7 @@
         <v>58</v>
       </c>
       <c r="B8" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A8&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$29,"*"&amp;Tags!$A8&amp;"*",EN!$B$1:$B$29,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5264,7 +5436,7 @@
         <v>57</v>
       </c>
       <c r="B9" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A9&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$29,"*"&amp;Tags!$A9&amp;"*",EN!$B$1:$B$29,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5273,7 +5445,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A10&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$29,"*"&amp;Tags!$A10&amp;"*",EN!$B$1:$B$29,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5282,7 +5454,7 @@
         <v>100</v>
       </c>
       <c r="B11" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A11&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$29,"*"&amp;Tags!$A11&amp;"*",EN!$B$1:$B$29,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5291,7 +5463,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A12&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$29,"*"&amp;Tags!$A12&amp;"*",EN!$B$1:$B$29,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5300,7 +5472,7 @@
         <v>108</v>
       </c>
       <c r="B13" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A13&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$29,"*"&amp;Tags!$A13&amp;"*",EN!$B$1:$B$29,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5309,7 +5481,7 @@
         <v>152</v>
       </c>
       <c r="B14" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A14&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$29,"*"&amp;Tags!$A14&amp;"*",EN!$B$1:$B$29,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5318,7 +5490,7 @@
         <v>162</v>
       </c>
       <c r="B15" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A15&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$29,"*"&amp;Tags!$A15&amp;"*",EN!$B$1:$B$29,"Yes")&gt;0,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -5327,7 +5499,7 @@
         <v>161</v>
       </c>
       <c r="B16" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A16&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$29,"*"&amp;Tags!$A16&amp;"*",EN!$B$1:$B$29,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5336,7 +5508,16 @@
         <v>168</v>
       </c>
       <c r="B17" s="26" t="str">
-        <f>IF(COUNTIFS(EN!$Q$1:$Q$28,"*"&amp;Tags!$A17&amp;"*",EN!$B$1:$B$28,"Yes")&gt;0,"Yes","No")</f>
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$29,"*"&amp;Tags!$A17&amp;"*",EN!$B$1:$B$29,"Yes")&gt;0,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="26" t="str">
+        <f>IF(COUNTIFS(EN!$Q$1:$Q$29,"*"&amp;Tags!$A18&amp;"*",EN!$B$1:$B$29,"Yes")&gt;0,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
